--- a/presentation/evavalues/avgscoreallgroups.xlsx
+++ b/presentation/evavalues/avgscoreallgroups.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git repositories\Auto_TextSum\presentation\evavalues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A043C9C-F1F0-4B15-8D81-0150062B7EBA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE95A74A-C132-4277-8C6D-CA6C296D4E07}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="avgscoreallgroups" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="39">
   <si>
     <t>Gruppe1</t>
   </si>
@@ -73,22 +74,7 @@
     <t>max-q75</t>
   </si>
   <si>
-    <t>group 1</t>
-  </si>
-  <si>
-    <t>group 3</t>
-  </si>
-  <si>
-    <t>group 4</t>
-  </si>
-  <si>
     <t>group 5</t>
-  </si>
-  <si>
-    <t>group 6</t>
-  </si>
-  <si>
-    <t>score (w/conf.)</t>
   </si>
   <si>
     <t>best</t>
@@ -100,13 +86,58 @@
     <t>Ø score per topic</t>
   </si>
   <si>
-    <t>Øscore per topic (w/ conf.)</t>
-  </si>
-  <si>
     <t>score per topic</t>
   </si>
   <si>
     <t>score per topic (w/ conf.)</t>
+  </si>
+  <si>
+    <t>Baseline1</t>
+  </si>
+  <si>
+    <t>Baseline</t>
+  </si>
+  <si>
+    <t>Group 1</t>
+  </si>
+  <si>
+    <t>Group 3</t>
+  </si>
+  <si>
+    <t>Group 4</t>
+  </si>
+  <si>
+    <t>Group 5</t>
+  </si>
+  <si>
+    <t>Group 6</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>Ø Score per Topic</t>
+  </si>
+  <si>
+    <t>g5</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>g1</t>
+  </si>
+  <si>
+    <t>g3</t>
+  </si>
+  <si>
+    <t>g4</t>
+  </si>
+  <si>
+    <t>g6</t>
+  </si>
+  <si>
+    <t>Average</t>
   </si>
 </sst>
 </file>
@@ -599,7 +630,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -615,6 +646,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -705,7 +739,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>avgscoreallgroups!$E$40</c:f>
+              <c:f>avgscoreallgroups!$D$44</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -724,46 +758,52 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>avgscoreallgroups!$F$39:$J$39</c:f>
+              <c:f>avgscoreallgroups!$E$43:$J$43</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>group 1</c:v>
+                  <c:v>Baseline</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>group 3</c:v>
+                  <c:v>Group 1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>group 4</c:v>
+                  <c:v>Group 3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>group 5</c:v>
+                  <c:v>Group 4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>group 6</c:v>
+                  <c:v>Group 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Group 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>avgscoreallgroups!$F$40:$J$40</c:f>
+              <c:f>avgscoreallgroups!$E$44:$J$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>1.5832857889982399</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2.3018575851393202</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2.6516057585824999</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>2.48304136804368</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>2.03686868686869</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2.6893405586451</c:v>
                 </c:pt>
               </c:numCache>
@@ -780,7 +820,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>avgscoreallgroups!$E$41</c:f>
+              <c:f>avgscoreallgroups!$D$45</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -818,46 +858,52 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>avgscoreallgroups!$F$39:$J$39</c:f>
+              <c:f>avgscoreallgroups!$E$43:$J$43</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>group 1</c:v>
+                  <c:v>Baseline</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>group 3</c:v>
+                  <c:v>Group 1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>group 4</c:v>
+                  <c:v>Group 3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>group 5</c:v>
+                  <c:v>Group 4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>group 6</c:v>
+                  <c:v>Group 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Group 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>avgscoreallgroups!$F$41:$J$41</c:f>
+              <c:f>avgscoreallgroups!$E$45:$J$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>0.71704139240311027</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.36637718188576995</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.82946336722346992</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.74550460311816735</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>1.30403440040139</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.58866772425727998</c:v>
                 </c:pt>
               </c:numCache>
@@ -874,7 +920,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>avgscoreallgroups!$E$42</c:f>
+              <c:f>avgscoreallgroups!$D$46</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -921,46 +967,52 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>avgscoreallgroups!$F$39:$J$39</c:f>
+              <c:f>avgscoreallgroups!$E$43:$J$43</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>group 1</c:v>
+                  <c:v>Baseline</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>group 3</c:v>
+                  <c:v>Group 1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>group 4</c:v>
+                  <c:v>Group 3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>group 5</c:v>
+                  <c:v>Group 4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>group 6</c:v>
+                  <c:v>Group 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Group 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>avgscoreallgroups!$F$42:$J$42</c:f>
+              <c:f>avgscoreallgroups!$E$46:$J$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>0.30855231119906978</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.46815161936129979</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.24230574138228</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.38956040151276738</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.36546946174953021</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.27273593724356981</c:v>
                 </c:pt>
               </c:numCache>
@@ -977,7 +1029,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>avgscoreallgroups!$E$43</c:f>
+              <c:f>avgscoreallgroups!$D$47</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1024,46 +1076,52 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>avgscoreallgroups!$F$39:$J$39</c:f>
+              <c:f>avgscoreallgroups!$E$43:$J$43</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>group 1</c:v>
+                  <c:v>Baseline</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>group 3</c:v>
+                  <c:v>Group 1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>group 4</c:v>
+                  <c:v>Group 3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>group 5</c:v>
+                  <c:v>Group 4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>group 6</c:v>
+                  <c:v>Group 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Group 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>avgscoreallgroups!$F$43:$J$43</c:f>
+              <c:f>avgscoreallgroups!$E$47:$J$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>0.1983668842111701</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.34569246666021014</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.20259233128534015</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.36015295532196534</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.15192509696185974</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.2687021242832901</c:v>
                 </c:pt>
               </c:numCache>
@@ -1080,7 +1138,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>avgscoreallgroups!$E$44</c:f>
+              <c:f>avgscoreallgroups!$D$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1118,46 +1176,52 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>avgscoreallgroups!$F$39:$J$39</c:f>
+              <c:f>avgscoreallgroups!$E$43:$J$43</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>group 1</c:v>
+                  <c:v>Baseline</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>group 3</c:v>
+                  <c:v>Group 1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>group 4</c:v>
+                  <c:v>Group 3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>group 5</c:v>
+                  <c:v>Group 4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>group 6</c:v>
+                  <c:v>Group 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Group 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>avgscoreallgroups!$F$44:$J$44</c:f>
+              <c:f>avgscoreallgroups!$E$48:$J$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>0.4025053885880201</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.94547308913949024</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.65569946819307967</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.53571380505489019</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.56907286362587994</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.55546208047918011</c:v>
                 </c:pt>
               </c:numCache>
@@ -1258,7 +1322,7 @@
         <c:title>
           <c:tx>
             <c:strRef>
-              <c:f>avgscoreallgroups!$F$30</c:f>
+              <c:f>avgscoreallgroups!$E$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1280,7 +1344,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1404,7 +1468,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>avgscoreallgroups!$E$40</c:f>
+              <c:f>avgscoreallgroups!$D$44</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1423,46 +1487,52 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>avgscoreallgroups!$L$39:$P$39</c:f>
+              <c:f>avgscoreallgroups!$L$43:$Q$43</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>group 1</c:v>
+                  <c:v>Baseline</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>group 3</c:v>
+                  <c:v>Group 1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>group 4</c:v>
+                  <c:v>Group 3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>group 5</c:v>
+                  <c:v>Group 4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>group 6</c:v>
+                  <c:v>Group 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Group 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>avgscoreallgroups!$L$40:$P$40</c:f>
+              <c:f>avgscoreallgroups!$L$44:$Q$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>1.5505890297389799</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2.2487604343187102</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2.6087598675833998</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.03686868686869</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.6893405586451</c:v>
+                  <c:v>2.46987016869471</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>2.0378198772935598</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>2.6652506223934802</c:v>
                 </c:pt>
               </c:numCache>
@@ -1479,7 +1549,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>avgscoreallgroups!$E$41</c:f>
+              <c:f>avgscoreallgroups!$D$45</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1517,46 +1587,52 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>avgscoreallgroups!$L$39:$P$39</c:f>
+              <c:f>avgscoreallgroups!$L$43:$Q$43</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>group 1</c:v>
+                  <c:v>Baseline</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>group 3</c:v>
+                  <c:v>Group 1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>group 4</c:v>
+                  <c:v>Group 3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>group 5</c:v>
+                  <c:v>Group 4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>group 6</c:v>
+                  <c:v>Group 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Group 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>avgscoreallgroups!$L$41:$P$41</c:f>
+              <c:f>avgscoreallgroups!$L$45:$Q$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>0.76093733519296003</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.44158047477219986</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.89897255173357005</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.30403440040139</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.58866772425727998</c:v>
+                  <c:v>0.76390676258299761</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>1.3248530595443802</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.62341469934956972</c:v>
                 </c:pt>
               </c:numCache>
@@ -1573,7 +1649,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>avgscoreallgroups!$E$42</c:f>
+              <c:f>avgscoreallgroups!$D$46</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1603,7 +1679,10 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="9C1C1C"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -1618,48 +1697,75 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="9C1C1C"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-2900-4957-8BC1-343542486E09}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>avgscoreallgroups!$L$39:$P$39</c:f>
+              <c:f>avgscoreallgroups!$L$43:$Q$43</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>group 1</c:v>
+                  <c:v>Baseline</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>group 3</c:v>
+                  <c:v>Group 1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>group 4</c:v>
+                  <c:v>Group 3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>group 5</c:v>
+                  <c:v>Group 4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>group 6</c:v>
+                  <c:v>Group 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Group 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>avgscoreallgroups!$L$42:$P$42</c:f>
+              <c:f>avgscoreallgroups!$L$46:$Q$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>0.29224157765179015</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.43703342775310006</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.24457322684643001</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.36546946174953021</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.27273593724356981</c:v>
+                  <c:v>0.38536943343493268</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0.35032928180015022</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.29039515883917</c:v>
                 </c:pt>
               </c:numCache>
@@ -1676,7 +1782,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>avgscoreallgroups!$E$43</c:f>
+              <c:f>avgscoreallgroups!$D$47</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1706,7 +1812,10 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="9C1C1C"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -1721,48 +1830,75 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="9C1C1C"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-2900-4957-8BC1-343542486E09}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>avgscoreallgroups!$L$39:$P$39</c:f>
+              <c:f>avgscoreallgroups!$L$43:$Q$43</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>group 1</c:v>
+                  <c:v>Baseline</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>group 3</c:v>
+                  <c:v>Group 1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>group 4</c:v>
+                  <c:v>Group 3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>group 5</c:v>
+                  <c:v>Group 4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>group 6</c:v>
+                  <c:v>Group 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Group 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>avgscoreallgroups!$L$43:$P$43</c:f>
+              <c:f>avgscoreallgroups!$L$47:$Q$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>0.20542953059923974</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.34359340509146996</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.20107834039594019</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.15192509696185974</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.2687021242832901</c:v>
+                  <c:v>0.38159531000671443</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0.17032415284617963</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.25506656100878988</c:v>
                 </c:pt>
               </c:numCache>
@@ -1779,7 +1915,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>avgscoreallgroups!$E$44</c:f>
+              <c:f>avgscoreallgroups!$D$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1817,46 +1953,52 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>avgscoreallgroups!$L$39:$P$39</c:f>
+              <c:f>avgscoreallgroups!$L$43:$Q$43</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>group 1</c:v>
+                  <c:v>Baseline</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>group 3</c:v>
+                  <c:v>Group 1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>group 4</c:v>
+                  <c:v>Group 3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>group 5</c:v>
+                  <c:v>Group 4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>group 6</c:v>
+                  <c:v>Group 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Group 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>avgscoreallgroups!$L$44:$P$44</c:f>
+              <c:f>avgscoreallgroups!$L$48:$Q$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>0.40193117717220028</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.97080782853809033</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.62327036807500003</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.56907286362587994</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.55546208047918011</c:v>
+                  <c:v>0.52492832579174564</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0.58692710636294043</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.53763043365409979</c:v>
                 </c:pt>
               </c:numCache>
@@ -1910,7 +2052,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1957,11 +2099,11 @@
         <c:title>
           <c:tx>
             <c:strRef>
-              <c:f>avgscoreallgroups!$L$30</c:f>
+              <c:f>avgscoreallgroups!$L$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>score (w/conf.)</c:v>
+                  <c:v>Score</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2102,7 +2244,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>avgscoreallgroups!$E$24</c:f>
+              <c:f>avgscoreallgroups!$E$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2128,7 +2270,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>avgscoreallgroups!$F$23:$BB$23</c:f>
+              <c:f>avgscoreallgroups!$F$27:$BB$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="49"/>
@@ -2284,7 +2426,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>avgscoreallgroups!$F$24:$BB$24</c:f>
+              <c:f>avgscoreallgroups!$F$28:$BB$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="49"/>
@@ -2450,7 +2592,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>avgscoreallgroups!$E$25</c:f>
+              <c:f>avgscoreallgroups!$E$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2473,7 +2615,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>avgscoreallgroups!$F$23:$BB$23</c:f>
+              <c:f>avgscoreallgroups!$F$27:$BB$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="49"/>
@@ -2629,7 +2771,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>avgscoreallgroups!$F$25:$BB$25</c:f>
+              <c:f>avgscoreallgroups!$F$29:$BB$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="49"/>
@@ -3139,11 +3281,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>avgscoreallgroups!$E$27</c:f>
+              <c:f>avgscoreallgroups!$E$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Øscore per topic (w/ conf.)</c:v>
+                  <c:v>Ø Score per Topic</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3165,7 +3307,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>avgscoreallgroups!$F$23:$BB$23</c:f>
+              <c:f>avgscoreallgroups!$F$27:$BB$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="49"/>
@@ -3321,7 +3463,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>avgscoreallgroups!$F$27:$BB$27</c:f>
+              <c:f>avgscoreallgroups!$F$31:$BB$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="49"/>
@@ -3487,11 +3629,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>avgscoreallgroups!$E$28</c:f>
+              <c:f>avgscoreallgroups!$E$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>group 5</c:v>
+                  <c:v>Group 5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3510,7 +3652,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>avgscoreallgroups!$F$23:$BB$23</c:f>
+              <c:f>avgscoreallgroups!$F$27:$BB$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="49"/>
@@ -3666,7 +3808,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>avgscoreallgroups!$F$28:$BB$28</c:f>
+              <c:f>avgscoreallgroups!$F$32:$BB$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="49"/>
@@ -3880,8 +4022,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-DE" sz="1100"/>
-                  <a:t>topic</a:t>
+                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:t>Topic</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4002,7 +4144,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>score</a:t>
+                  <a:t>Score</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4096,6 +4238,905 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2,608759868</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$B$5:$B$53</c:f>
+              <c:strCache>
+                <c:ptCount val="49"/>
+                <c:pt idx="0">
+                  <c:v>4,399543134</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3,923506504</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Average</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2,964170716</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3,019711505</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3,038033759</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3,057828221</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3,117488045</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3,174992519</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3,218426956</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3,236148728</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3,249637287</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3,280240799</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3,328203397</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3,35219878</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3,37505871</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3,378083757</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3,392904328</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3,398168915</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3,405718407</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3,418916723</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3,424670602</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3,444005909</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3,454526491</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3,492963668</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3,499811567</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3,507870667</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3,508726114</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3,509877648</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3,540774593</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3,557271038</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3,568240636</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3,579353267</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3,586545258</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3,595180621</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3,597690473</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3,599452285</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3,61334097</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3,632870032</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3,633197077</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3,718157479</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3,73117462</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3,734634159</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3,736707445</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3,793287981</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3,81203203</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$C$5:$C$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="49"/>
+                <c:pt idx="0">
+                  <c:v>3.0425754709647301</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4644276284034401</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0378198772935598</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2284475737637299</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5244370966096898</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.7364546809256698</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.90516058532303</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0267985572259102</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.16646219881132</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.2261000764481498</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.2391596345084701</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.3130914497346602</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.34856994856995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.3597115360234699</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.36267293683794</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.36860559448077</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.3921672869041299</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.4254868832206999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.44327601215097</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.4563239441696201</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.5109544055318098</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.5174888999146301</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.5254560468550502</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.5880456424790999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.6209684633051502</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.68522843643811</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.7130022186380902</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.7235026399551301</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.72368764526975</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.7460125755961999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.7819303388413399</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.7960199511972998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.7971174528474299</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7992109308085902</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.8290935211465</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.8337609918530999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.8345972215832398</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.8401452620202599</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.8833263714842698</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.9084019898991702</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.9269408369408398</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.9341810966811002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.95716188177702</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.9739781385936102</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.9928706775637899</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-42DE-4723-A521-61C230385B2E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3,80963275</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$B$5:$B$53</c:f>
+              <c:strCache>
+                <c:ptCount val="49"/>
+                <c:pt idx="0">
+                  <c:v>4,399543134</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3,923506504</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Average</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2,964170716</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3,019711505</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3,038033759</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3,057828221</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3,117488045</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3,174992519</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3,218426956</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3,236148728</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3,249637287</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3,280240799</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3,328203397</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3,35219878</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3,37505871</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3,378083757</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3,392904328</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3,398168915</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3,405718407</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3,418916723</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3,424670602</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3,444005909</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3,454526491</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3,492963668</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3,499811567</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3,507870667</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3,508726114</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3,509877648</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3,540774593</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3,557271038</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3,568240636</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3,579353267</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3,586545258</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3,595180621</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3,597690473</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3,599452285</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3,61334097</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3,632870032</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3,633197077</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3,718157479</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3,73117462</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3,734634159</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3,736707445</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3,793287981</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3,81203203</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$D$5:$D$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="49"/>
+                <c:pt idx="0">
+                  <c:v>3.1047499886608101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3361018574916899</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2487604343187102</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.29163821442092</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3114829059829098</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.3202179697881902</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.3622864574226301</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.4569015513991599</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.4772186665009599</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.47951983604157</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.5693473193473202</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.5767513520772298</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.5897424953763002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.6072404371584699</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.6903409090909101</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.71455109712387</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.7303923761800402</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.7883166731281301</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.8377651480503898</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.8483057525610702</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.88382683094127</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.9526449938949901</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.95913386130777</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.9742647058823501</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.0797128259337598</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.0976001511715801</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.1273743368440101</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1507977685358202</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.15263157894737</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.1678268092061201</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.2478431372548999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.27906963943459</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.3073827707974099</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.3240369579716802</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.3665200016033299</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.4219334803338701</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.4235855263157902</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.4590070227012899</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.4709677419354801</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.5660669046458202</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.6109685968984602</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.65465619651666</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.6927556818181801</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.7768353728755102</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.83900711342572</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-42DE-4723-A521-61C230385B2E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="806427472"/>
+        <c:axId val="854194080"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="806427472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="854194080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="854194080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="806427472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -4128,7 +5169,764 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$A$11:$A$59</c:f>
+              <c:strCache>
+                <c:ptCount val="49"/>
+                <c:pt idx="0">
+                  <c:v>worst</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>best</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$11:$B$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="49"/>
+                <c:pt idx="0">
+                  <c:v>2.9641707164657518</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0197115047644338</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.038033759192158</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0578282212503636</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1174880449047548</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1749925186225503</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.21842695585755</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.2361487283365475</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.2496372868206236</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.2802407985320015</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.3282033968414857</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.3521987800962885</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.3750587095281284</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.3780837569171118</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.3929043283781581</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.3981689145435099</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.4057184070565585</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.4189167229019737</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.4246706016048982</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.4440059092161044</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.4545264908667561</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.4929636675757259</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.4998115670316219</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.5078706668838224</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.5087261136515613</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.5098776477790414</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.5407745933090973</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.5572710376820185</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.5682406357438099</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.5793532672236261</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.5865452581784902</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.595180620700436</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.5976904733482917</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.5994522848226942</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.6133409698896015</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.632870032381438</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.633197076748452</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7181574789899559</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.7311746199111924</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.7346341589312813</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.7367074454290723</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.7932879810725879</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.8120320302912076</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.836999716162238</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.8390810554496979</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.8696590267556261</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.9074090650626743</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.9701483631683758</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.0691077830017734</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8A31-4B3E-9189-3BAE9934A828}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$C$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Group 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="9C1C1C"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$A$11:$A$59</c:f>
+              <c:strCache>
+                <c:ptCount val="49"/>
+                <c:pt idx="0">
+                  <c:v>worst</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>best</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$C$11:$C$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="49"/>
+                <c:pt idx="0">
+                  <c:v>2.0378198772935598</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2284475737637299</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5244370966096898</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7364546809256698</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.90516058532303</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0267985572259102</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.16646219881132</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.2261000764481498</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.2391596345084701</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.3130914497346602</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.34856994856995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.3597115360234699</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.36267293683794</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.36860559448077</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.3921672869041299</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.4254868832206999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.44327601215097</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.4563239441696201</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.5109544055318098</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.5174888999146301</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.5254560468550502</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.5880456424790999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.6209684633051502</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.68522843643811</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.7130022186380902</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.7235026399551301</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.72368764526975</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.7460125755961999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.7819303388413399</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.7960199511972998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.7971174528474299</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.7992109308085902</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.8290935211465</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.8337609918530999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.8345972215832398</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.8401452620202599</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.8833263714842698</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.9084019898991702</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.9269408369408398</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9341810966811002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.95716188177702</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.9739781385936102</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.9928706775637899</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.0136354246122599</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.0998172514619897</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.1055562858194401</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.1116455063478501</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.14422889784161</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.4702534778472103</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8A31-4B3E-9189-3BAE9934A828}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="806428672"/>
+        <c:axId val="911316752"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="806428672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:t>sorted</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:t>evaluated summaries</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="911316752"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="911316752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:t>Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="806428672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="tr"/>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -4311,6 +6109,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
@@ -6353,20 +8231,1039 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>247648</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>391966</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>147926</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>445648</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>160162</xdr:rowOff>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>589966</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>189026</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6394,15 +9291,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>219073</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>166682</xdr:rowOff>
+      <xdr:colOff>478846</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>80091</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>417073</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>17282</xdr:rowOff>
+      <xdr:colOff>710864</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>91423</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6431,16 +9328,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>285748</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>119060</xdr:rowOff>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>170293</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>3605</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>483748</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>160160</xdr:rowOff>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>368293</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>44705</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6467,16 +9364,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>333373</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>71435</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>275646</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>129163</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>531373</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>112535</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>473646</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>170263</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6496,6 +9393,83 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01F72915-5869-4353-BEE0-4FEA75829046}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>733424</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>169424</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>143774</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A97933E0-A0C4-44F5-A8CD-4F4C9782CBC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6801,10 +9775,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BB44"/>
+  <dimension ref="A1:BB48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView topLeftCell="A39" zoomScale="84" workbookViewId="0">
+      <selection activeCell="Q64" sqref="Q64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6814,10 +9788,10 @@
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D1" s="4"/>
     </row>
@@ -7144,7 +10118,7 @@
     </row>
     <row r="4" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <f t="shared" ref="A4:A28" si="0">MAX($F4:$BB4)</f>
+        <f t="shared" ref="A4:A32" si="0">MAX($F4:$BB4)</f>
         <v>4.4417755704735704</v>
       </c>
       <c r="B4" s="1">
@@ -7152,7 +10126,7 @@
         <v>4.4275519421860903</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" ref="C4:C28" si="2">MIN($F4:$BB4)</f>
+        <f t="shared" ref="C4:C32" si="2">MIN($F4:$BB4)</f>
         <v>2.2487604343187102</v>
       </c>
       <c r="D4" s="4">
@@ -8933,7 +11907,7 @@
         <v>1005</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F19" s="1">
         <v>3.9218853292651898</v>
@@ -9089,7 +12063,7 @@
         <v>4.3717574752451096</v>
       </c>
       <c r="B20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B20:B24" si="4">INDEX($F19:$BB19, MATCH(A20,$F20:$BB20,0))</f>
         <v>4.37490842490842</v>
       </c>
       <c r="C20" s="1">
@@ -9097,11 +12071,11 @@
         <v>2.6652506223934802</v>
       </c>
       <c r="D20" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="D20:D24" si="5">INDEX($F19:$BB19, MATCH(C20,$F20:$BB20,0))</f>
         <v>2.6893405586451</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F20" s="1">
         <v>3.9235065040105801</v>
@@ -9256,1583 +12230,4203 @@
     </row>
     <row r="22" spans="1:54" x14ac:dyDescent="0.25">
       <c r="D22" s="4"/>
+      <c r="E22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22">
+        <v>1001</v>
+      </c>
+      <c r="G22">
+        <v>1002</v>
+      </c>
+      <c r="H22">
+        <v>1003</v>
+      </c>
+      <c r="I22">
+        <v>1004</v>
+      </c>
+      <c r="J22">
+        <v>1005</v>
+      </c>
+      <c r="K22">
+        <v>1006</v>
+      </c>
+      <c r="L22">
+        <v>1007</v>
+      </c>
+      <c r="M22">
+        <v>1008</v>
+      </c>
+      <c r="N22">
+        <v>1010</v>
+      </c>
+      <c r="O22">
+        <v>1011</v>
+      </c>
+      <c r="P22">
+        <v>1012</v>
+      </c>
+      <c r="Q22">
+        <v>1013</v>
+      </c>
+      <c r="R22">
+        <v>1014</v>
+      </c>
+      <c r="S22">
+        <v>1015</v>
+      </c>
+      <c r="T22">
+        <v>1016</v>
+      </c>
+      <c r="U22">
+        <v>1017</v>
+      </c>
+      <c r="V22">
+        <v>1018</v>
+      </c>
+      <c r="W22">
+        <v>1019</v>
+      </c>
+      <c r="X22">
+        <v>1020</v>
+      </c>
+      <c r="Y22">
+        <v>1021</v>
+      </c>
+      <c r="Z22">
+        <v>1022</v>
+      </c>
+      <c r="AA22">
+        <v>1023</v>
+      </c>
+      <c r="AB22">
+        <v>1024</v>
+      </c>
+      <c r="AC22">
+        <v>1025</v>
+      </c>
+      <c r="AD22">
+        <v>1026</v>
+      </c>
+      <c r="AE22">
+        <v>1027</v>
+      </c>
+      <c r="AF22">
+        <v>1028</v>
+      </c>
+      <c r="AG22">
+        <v>1029</v>
+      </c>
+      <c r="AH22">
+        <v>1030</v>
+      </c>
+      <c r="AI22">
+        <v>1031</v>
+      </c>
+      <c r="AJ22">
+        <v>1032</v>
+      </c>
+      <c r="AK22">
+        <v>1033</v>
+      </c>
+      <c r="AL22">
+        <v>1034</v>
+      </c>
+      <c r="AM22">
+        <v>1035</v>
+      </c>
+      <c r="AN22">
+        <v>1036</v>
+      </c>
+      <c r="AO22">
+        <v>1037</v>
+      </c>
+      <c r="AP22">
+        <v>1038</v>
+      </c>
+      <c r="AQ22">
+        <v>1039</v>
+      </c>
+      <c r="AR22">
+        <v>1040</v>
+      </c>
+      <c r="AS22">
+        <v>1041</v>
+      </c>
+      <c r="AT22">
+        <v>1042</v>
+      </c>
+      <c r="AU22">
+        <v>1043</v>
+      </c>
+      <c r="AV22">
+        <v>1044</v>
+      </c>
+      <c r="AW22">
+        <v>1045</v>
+      </c>
+      <c r="AX22">
+        <v>1046</v>
+      </c>
+      <c r="AY22">
+        <v>1047</v>
+      </c>
+      <c r="AZ22">
+        <v>1048</v>
+      </c>
+      <c r="BA22">
+        <v>1049</v>
+      </c>
+      <c r="BB22">
+        <v>1050</v>
+      </c>
     </row>
     <row r="23" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="D23" s="4"/>
-      <c r="F23" s="1">
-        <v>1001</v>
-      </c>
-      <c r="G23" s="1">
-        <v>1002</v>
-      </c>
-      <c r="H23" s="1">
-        <v>1003</v>
-      </c>
-      <c r="I23" s="1">
-        <v>1004</v>
-      </c>
-      <c r="J23" s="1">
-        <v>1005</v>
-      </c>
-      <c r="K23" s="1">
+      <c r="A23" s="1">
+        <f t="shared" si="0"/>
+        <v>3.2097517653996102</v>
+      </c>
+      <c r="B23" s="1">
+        <f t="shared" si="4"/>
+        <v>1018</v>
+      </c>
+      <c r="C23" s="1">
+        <f t="shared" si="2"/>
+        <v>1.5832857889982399</v>
+      </c>
+      <c r="D23" s="4">
+        <f t="shared" si="5"/>
         <v>1006</v>
       </c>
-      <c r="L23" s="1">
-        <v>1007</v>
-      </c>
-      <c r="M23" s="1">
-        <v>1008</v>
-      </c>
-      <c r="N23" s="1">
-        <v>1010</v>
-      </c>
-      <c r="O23" s="1">
-        <v>1011</v>
-      </c>
-      <c r="P23" s="1">
-        <v>1012</v>
-      </c>
-      <c r="Q23" s="1">
-        <v>1013</v>
-      </c>
-      <c r="R23" s="1">
-        <v>1014</v>
-      </c>
-      <c r="S23" s="1">
-        <v>1015</v>
-      </c>
-      <c r="T23" s="1">
-        <v>1016</v>
-      </c>
-      <c r="U23" s="1">
-        <v>1017</v>
-      </c>
-      <c r="V23" s="1">
-        <v>1018</v>
-      </c>
-      <c r="W23" s="1">
-        <v>1019</v>
-      </c>
-      <c r="X23" s="1">
-        <v>1020</v>
-      </c>
-      <c r="Y23" s="1">
-        <v>1021</v>
-      </c>
-      <c r="Z23" s="1">
-        <v>1022</v>
-      </c>
-      <c r="AA23" s="1">
-        <v>1023</v>
-      </c>
-      <c r="AB23" s="1">
-        <v>1024</v>
-      </c>
-      <c r="AC23" s="1">
-        <v>1025</v>
-      </c>
-      <c r="AD23" s="1">
-        <v>1026</v>
-      </c>
-      <c r="AE23" s="1">
-        <v>1027</v>
-      </c>
-      <c r="AF23" s="1">
-        <v>1028</v>
-      </c>
-      <c r="AG23" s="1">
-        <v>1029</v>
-      </c>
-      <c r="AH23" s="1">
-        <v>1030</v>
-      </c>
-      <c r="AI23" s="1">
-        <v>1031</v>
-      </c>
-      <c r="AJ23" s="1">
-        <v>1032</v>
-      </c>
-      <c r="AK23" s="1">
-        <v>1033</v>
-      </c>
-      <c r="AL23" s="1">
-        <v>1034</v>
-      </c>
-      <c r="AM23" s="1">
-        <v>1035</v>
-      </c>
-      <c r="AN23" s="1">
-        <v>1036</v>
-      </c>
-      <c r="AO23" s="1">
-        <v>1037</v>
-      </c>
-      <c r="AP23" s="1">
-        <v>1038</v>
-      </c>
-      <c r="AQ23" s="1">
-        <v>1039</v>
-      </c>
-      <c r="AR23" s="1">
-        <v>1040</v>
-      </c>
-      <c r="AS23" s="1">
-        <v>1041</v>
-      </c>
-      <c r="AT23" s="1">
-        <v>1042</v>
-      </c>
-      <c r="AU23" s="1">
-        <v>1043</v>
-      </c>
-      <c r="AV23" s="1">
-        <v>1044</v>
-      </c>
-      <c r="AW23" s="1">
-        <v>1045</v>
-      </c>
-      <c r="AX23" s="1">
-        <v>1046</v>
-      </c>
-      <c r="AY23" s="1">
-        <v>1047</v>
-      </c>
-      <c r="AZ23" s="1">
-        <v>1048</v>
-      </c>
-      <c r="BA23" s="1">
-        <v>1049</v>
-      </c>
-      <c r="BB23" s="1">
-        <v>1050</v>
+      <c r="E23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>2.6078445605884601</v>
+      </c>
+      <c r="G23">
+        <v>2.7296357001484401</v>
+      </c>
+      <c r="H23">
+        <v>2.4223125564589001</v>
+      </c>
+      <c r="I23">
+        <v>2.6400679117147701</v>
+      </c>
+      <c r="J23">
+        <v>2.3178341143017298</v>
+      </c>
+      <c r="K23">
+        <v>1.5832857889982399</v>
+      </c>
+      <c r="L23">
+        <v>2.8072463768115901</v>
+      </c>
+      <c r="M23">
+        <v>2.0187590187590199</v>
+      </c>
+      <c r="N23">
+        <v>2.9</v>
+      </c>
+      <c r="O23">
+        <v>2.2508167467398801</v>
+      </c>
+      <c r="P23">
+        <v>2.8313953488372099</v>
+      </c>
+      <c r="Q23">
+        <v>3.0142857142857098</v>
+      </c>
+      <c r="R23">
+        <v>2.6494056885857602</v>
+      </c>
+      <c r="S23">
+        <v>2.37252964426877</v>
+      </c>
+      <c r="T23">
+        <v>2.70017768893331</v>
+      </c>
+      <c r="U23">
+        <v>2.3003271814013502</v>
+      </c>
+      <c r="V23">
+        <v>3.2097517653996102</v>
+      </c>
+      <c r="W23">
+        <v>2.3594736842105299</v>
+      </c>
+      <c r="X23">
+        <v>1.8843463672731999</v>
+      </c>
+      <c r="Y23">
+        <v>2.7877419354838699</v>
+      </c>
+      <c r="Z23">
+        <v>2.6459726443768998</v>
+      </c>
+      <c r="AA23">
+        <v>2.5942874692874698</v>
+      </c>
+      <c r="AB23">
+        <v>2.1923890923890901</v>
+      </c>
+      <c r="AC23">
+        <v>2.91071428571429</v>
+      </c>
+      <c r="AD23">
+        <v>2.7926302806043801</v>
+      </c>
+      <c r="AE23">
+        <v>2.2263888888888901</v>
+      </c>
+      <c r="AF23">
+        <v>3.1680830280830299</v>
+      </c>
+      <c r="AG23">
+        <v>2.4716690578670502</v>
+      </c>
+      <c r="AH23">
+        <v>2.0752380952381002</v>
+      </c>
+      <c r="AI23">
+        <v>2.00999239708917</v>
+      </c>
+      <c r="AJ23">
+        <v>3.1900813008130098</v>
+      </c>
+      <c r="AK23">
+        <v>2.60887949260042</v>
+      </c>
+      <c r="AL23">
+        <v>1.9722222222222201</v>
+      </c>
+      <c r="AM23">
+        <v>2.6275837240749498</v>
+      </c>
+      <c r="AN23">
+        <v>3.1988197767145099</v>
+      </c>
+      <c r="AO23">
+        <v>2.4857142857142902</v>
+      </c>
+      <c r="AP23">
+        <v>2.6391931485237801</v>
+      </c>
+      <c r="AQ23">
+        <v>3.1538425925925901</v>
+      </c>
+      <c r="AR23">
+        <v>2.65455486542443</v>
+      </c>
+      <c r="AS23">
+        <v>1.97375933245498</v>
+      </c>
+      <c r="AT23">
+        <v>3.0424418604651202</v>
+      </c>
+      <c r="AU23">
+        <v>2.3840843023255802</v>
+      </c>
+      <c r="AV23">
+        <v>2.2732558139534902</v>
+      </c>
+      <c r="AW23">
+        <v>2.9458064516129001</v>
+      </c>
+      <c r="AX23">
+        <v>2.5296788482835</v>
+      </c>
+      <c r="AY23">
+        <v>2.4309225383920499</v>
+      </c>
+      <c r="AZ23">
+        <v>3.1470620180297599</v>
+      </c>
+      <c r="BA23">
+        <v>2.21735740316976</v>
+      </c>
+      <c r="BB23">
+        <v>2.7154195011337898</v>
       </c>
     </row>
     <row r="24" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <f>MAX($F24:$BB24)</f>
-        <v>4.0494675822673578</v>
+        <f t="shared" si="0"/>
+        <v>3.2111286503551701</v>
       </c>
       <c r="B24" s="1">
-        <f>INDEX($F23:$BB23, MATCH(A24,$F24:$BB24,0))</f>
-        <v>1004</v>
+        <f t="shared" si="4"/>
+        <v>3.1900813008130098</v>
       </c>
       <c r="C24" s="1">
-        <f>MIN($F24:$BB24)</f>
-        <v>2.9792394743825783</v>
+        <f t="shared" si="2"/>
+        <v>1.5505890297389799</v>
       </c>
       <c r="D24" s="4">
-        <f t="shared" ref="D24" si="4">INDEX($F23:$BB23, MATCH(C24,$F24:$BB24,0))</f>
-        <v>1019</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F24" s="1">
-        <f t="shared" ref="F24:AK24" si="5">AVERAGE(F3,F7,F11,F15,F19)</f>
-        <v>3.8187848892165883</v>
-      </c>
-      <c r="G24" s="1">
         <f t="shared" si="5"/>
-        <v>3.0575153813140616</v>
-      </c>
-      <c r="H24" s="1">
-        <f t="shared" si="5"/>
-        <v>3.345939671463416</v>
-      </c>
-      <c r="I24" s="1">
-        <f t="shared" si="5"/>
-        <v>4.0494675822673578</v>
-      </c>
-      <c r="J24" s="1">
-        <f t="shared" si="5"/>
-        <v>3.2513199354546578</v>
-      </c>
-      <c r="K24" s="1">
-        <f t="shared" si="5"/>
-        <v>3.3664560310712921</v>
-      </c>
-      <c r="L24" s="1">
-        <f t="shared" si="5"/>
-        <v>3.7103940129899762</v>
-      </c>
-      <c r="M24" s="1">
-        <f t="shared" si="5"/>
-        <v>3.404807487154426</v>
-      </c>
-      <c r="N24" s="1">
-        <f t="shared" si="5"/>
-        <v>3.4884981781875739</v>
-      </c>
-      <c r="O24" s="1">
-        <f t="shared" si="5"/>
-        <v>3.6282642306456481</v>
-      </c>
-      <c r="P24" s="1">
-        <f t="shared" si="5"/>
-        <v>3.707644599930414</v>
-      </c>
-      <c r="Q24" s="1">
-        <f t="shared" si="5"/>
-        <v>3.7232957590696762</v>
-      </c>
-      <c r="R24" s="1">
-        <f t="shared" si="5"/>
-        <v>3.6111785487726125</v>
-      </c>
-      <c r="S24" s="1">
-        <f t="shared" si="5"/>
-        <v>3.7111997267599741</v>
-      </c>
-      <c r="T24" s="1">
-        <f t="shared" si="5"/>
-        <v>3.4436691683669798</v>
-      </c>
-      <c r="U24" s="1">
-        <f t="shared" si="5"/>
-        <v>3.5080721804598518</v>
-      </c>
-      <c r="V24" s="1">
-        <f t="shared" si="5"/>
-        <v>3.5288434906246144</v>
-      </c>
-      <c r="W24" s="1">
-        <f t="shared" si="5"/>
-        <v>2.9792394743825783</v>
-      </c>
-      <c r="X24" s="1">
-        <f t="shared" si="5"/>
-        <v>3.4856366376697898</v>
-      </c>
-      <c r="Y24" s="1">
-        <f t="shared" si="5"/>
-        <v>3.436311929278864</v>
-      </c>
-      <c r="Z24" s="1">
-        <f t="shared" si="5"/>
-        <v>3.7980745050040405</v>
-      </c>
-      <c r="AA24" s="1">
-        <f t="shared" si="5"/>
-        <v>3.4463031352684661</v>
-      </c>
-      <c r="AB24" s="1">
-        <f t="shared" si="5"/>
-        <v>3.3909504037412956</v>
-      </c>
-      <c r="AC24" s="1">
-        <f t="shared" si="5"/>
-        <v>3.6161081817520198</v>
-      </c>
-      <c r="AD24" s="1">
-        <f t="shared" si="5"/>
-        <v>3.2287821547142146</v>
-      </c>
-      <c r="AE24" s="1">
-        <f t="shared" si="5"/>
-        <v>3.5747824439551414</v>
-      </c>
-      <c r="AF24" s="1">
-        <f t="shared" si="5"/>
-        <v>3.0093782502815918</v>
-      </c>
-      <c r="AG24" s="1">
-        <f t="shared" si="5"/>
-        <v>3.3322339719353797</v>
-      </c>
-      <c r="AH24" s="1">
-        <f t="shared" si="5"/>
-        <v>3.4084876822855774</v>
-      </c>
-      <c r="AI24" s="1">
-        <f t="shared" si="5"/>
-        <v>3.1702591559208102</v>
-      </c>
-      <c r="AJ24" s="1">
-        <f t="shared" si="5"/>
-        <v>3.1192089728289125</v>
-      </c>
-      <c r="AK24" s="1">
-        <f t="shared" si="5"/>
-        <v>3.5356575777367851</v>
-      </c>
-      <c r="AL24" s="1">
-        <f t="shared" ref="AL24:BB24" si="6">AVERAGE(AL3,AL7,AL11,AL15,AL19)</f>
-        <v>3.2770832733504838</v>
-      </c>
-      <c r="AM24" s="1">
-        <f t="shared" si="6"/>
-        <v>3.872181058332842</v>
-      </c>
-      <c r="AN24" s="1">
-        <f t="shared" si="6"/>
-        <v>3.5692364069521019</v>
-      </c>
-      <c r="AO24" s="1">
-        <f t="shared" si="6"/>
-        <v>3.3959630914627383</v>
-      </c>
-      <c r="AP24" s="1">
-        <f t="shared" si="6"/>
-        <v>3.4042812049559417</v>
-      </c>
-      <c r="AQ24" s="1">
-        <f t="shared" si="6"/>
-        <v>3.049199999136428</v>
-      </c>
-      <c r="AR24" s="1">
-        <f t="shared" si="6"/>
-        <v>3.8815701951722317</v>
-      </c>
-      <c r="AS24" s="1">
-        <f t="shared" si="6"/>
-        <v>3.515918457109148</v>
-      </c>
-      <c r="AT24" s="1">
-        <f t="shared" si="6"/>
-        <v>3.5399366501057559</v>
-      </c>
-      <c r="AU24" s="1">
-        <f t="shared" si="6"/>
-        <v>3.5941765771972021</v>
-      </c>
-      <c r="AV24" s="1">
-        <f t="shared" si="6"/>
-        <v>3.7848318625595327</v>
-      </c>
-      <c r="AW24" s="1">
-        <f t="shared" si="6"/>
-        <v>3.2185698957130642</v>
-      </c>
-      <c r="AX24" s="1">
-        <f t="shared" si="6"/>
-        <v>3.8188833634970698</v>
-      </c>
-      <c r="AY24" s="1">
-        <f t="shared" si="6"/>
-        <v>3.597005243646838</v>
-      </c>
-      <c r="AZ24" s="1">
-        <f t="shared" si="6"/>
-        <v>3.9515174123062708</v>
-      </c>
-      <c r="BA24" s="1">
-        <f t="shared" si="6"/>
-        <v>3.488782738192286</v>
-      </c>
-      <c r="BB24" s="1">
-        <f t="shared" si="6"/>
-        <v>3.5918276440263242</v>
+        <v>1.5832857889982399</v>
+      </c>
+      <c r="E24" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>2.5864545494573199</v>
+      </c>
+      <c r="G24">
+        <v>2.7098899624261898</v>
+      </c>
+      <c r="H24">
+        <v>2.4091327352196901</v>
+      </c>
+      <c r="I24">
+        <v>2.6462813620071701</v>
+      </c>
+      <c r="J24">
+        <v>2.31152636493194</v>
+      </c>
+      <c r="K24">
+        <v>1.5505890297389799</v>
+      </c>
+      <c r="L24">
+        <v>2.7814386551500001</v>
+      </c>
+      <c r="M24">
+        <v>2.0142849147300099</v>
+      </c>
+      <c r="N24">
+        <v>2.8587301587301601</v>
+      </c>
+      <c r="O24">
+        <v>2.2842040319243999</v>
+      </c>
+      <c r="P24">
+        <v>2.8091974731829699</v>
+      </c>
+      <c r="Q24">
+        <v>3.0723946784922398</v>
+      </c>
+      <c r="R24">
+        <v>2.6445902792759699</v>
+      </c>
+      <c r="S24">
+        <v>2.3617500822764002</v>
+      </c>
+      <c r="T24">
+        <v>2.6721353608909801</v>
+      </c>
+      <c r="U24">
+        <v>2.3115902115472702</v>
+      </c>
+      <c r="V24">
+        <v>3.1858071148083398</v>
+      </c>
+      <c r="W24">
+        <v>2.3127620545073402</v>
+      </c>
+      <c r="X24">
+        <v>1.8390750547246699</v>
+      </c>
+      <c r="Y24">
+        <v>2.7945440524387899</v>
+      </c>
+      <c r="Z24">
+        <v>2.6703112687155199</v>
+      </c>
+      <c r="AA24">
+        <v>2.531208974818</v>
+      </c>
+      <c r="AB24">
+        <v>2.2766646789902598</v>
+      </c>
+      <c r="AC24">
+        <v>2.93713209324229</v>
+      </c>
+      <c r="AD24">
+        <v>2.8134178666093601</v>
+      </c>
+      <c r="AE24">
+        <v>2.19641888225719</v>
+      </c>
+      <c r="AF24">
+        <v>3.13626646208925</v>
+      </c>
+      <c r="AG24">
+        <v>2.5257492136965198</v>
+      </c>
+      <c r="AH24">
+        <v>2.06100307335976</v>
+      </c>
+      <c r="AI24">
+        <v>2.0014129149777999</v>
+      </c>
+      <c r="AJ24">
+        <v>3.2111286503551701</v>
+      </c>
+      <c r="AK24">
+        <v>2.6037679425837301</v>
+      </c>
+      <c r="AL24">
+        <v>2.0214646464646502</v>
+      </c>
+      <c r="AM24">
+        <v>2.66965170766874</v>
+      </c>
+      <c r="AN24">
+        <v>3.1949898646327202</v>
+      </c>
+      <c r="AO24">
+        <v>2.5282051282051299</v>
+      </c>
+      <c r="AP24">
+        <v>2.6983953474906901</v>
+      </c>
+      <c r="AQ24">
+        <v>3.2045206761742202</v>
+      </c>
+      <c r="AR24">
+        <v>2.7356525529737299</v>
+      </c>
+      <c r="AS24">
+        <v>1.9144190015735201</v>
+      </c>
+      <c r="AT24">
+        <v>3.0569155446756402</v>
+      </c>
+      <c r="AU24">
+        <v>2.3801549327865099</v>
+      </c>
+      <c r="AV24">
+        <v>2.2684171042760699</v>
+      </c>
+      <c r="AW24">
+        <v>2.9387500000000002</v>
+      </c>
+      <c r="AX24">
+        <v>2.5681650650690901</v>
+      </c>
+      <c r="AY24">
+        <v>2.3938236489231999</v>
+      </c>
+      <c r="AZ24">
+        <v>3.1306268328445701</v>
+      </c>
+      <c r="BA24">
+        <v>2.2109688433632102</v>
+      </c>
+      <c r="BB24">
+        <v>2.7491892046347499</v>
       </c>
     </row>
     <row r="25" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <f t="shared" si="0"/>
-        <v>4.4273705096073499</v>
-      </c>
-      <c r="B25" s="1">
-        <f>INDEX($F23:$BB23, MATCH(A25,$F25:$BB25,0))</f>
-        <v>1007</v>
-      </c>
-      <c r="C25" s="1">
-        <f t="shared" si="2"/>
-        <v>2.03686868686869</v>
-      </c>
-      <c r="D25" s="4">
-        <f>INDEX($F23:$BB23, MATCH(C25,$F25:$BB25,0))</f>
-        <v>1028</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F25" s="1">
-        <f t="shared" ref="F25:AK25" si="7">F15</f>
-        <v>3.5455409631019399</v>
-      </c>
-      <c r="G25" s="1">
-        <f t="shared" si="7"/>
-        <v>3.19562271709674</v>
-      </c>
-      <c r="H25" s="1">
-        <f t="shared" si="7"/>
-        <v>3.3399783149320599</v>
-      </c>
-      <c r="I25" s="1">
-        <f t="shared" si="7"/>
-        <v>3.85829764598147</v>
-      </c>
-      <c r="J25" s="1">
-        <f t="shared" si="7"/>
-        <v>3.38473761068472</v>
-      </c>
-      <c r="K25" s="1">
-        <f t="shared" si="7"/>
-        <v>2.9915214866434399</v>
-      </c>
-      <c r="L25" s="1">
-        <f t="shared" si="7"/>
-        <v>4.4273705096073499</v>
-      </c>
-      <c r="M25" s="1">
-        <f t="shared" si="7"/>
-        <v>3.2196004908832099</v>
-      </c>
-      <c r="N25" s="1">
-        <f t="shared" si="7"/>
-        <v>3.5461982631189901</v>
-      </c>
-      <c r="O25" s="1">
-        <f t="shared" si="7"/>
-        <v>3.8737610830820701</v>
-      </c>
-      <c r="P25" s="1">
-        <f t="shared" si="7"/>
-        <v>3.9288100266401602</v>
-      </c>
-      <c r="Q25" s="1">
-        <f t="shared" si="7"/>
-        <v>3.87889675806696</v>
-      </c>
-      <c r="R25" s="1">
-        <f t="shared" si="7"/>
-        <v>4.0120162858884703</v>
-      </c>
-      <c r="S25" s="1">
-        <f t="shared" si="7"/>
-        <v>4.0796982640836497</v>
-      </c>
-      <c r="T25" s="1">
-        <f t="shared" si="7"/>
-        <v>3.9474467418546402</v>
-      </c>
-      <c r="U25" s="1">
-        <f t="shared" si="7"/>
-        <v>3.7063725490196102</v>
-      </c>
-      <c r="V25" s="1">
-        <f t="shared" si="7"/>
-        <v>3.31071329254728</v>
-      </c>
-      <c r="W25" s="1">
-        <f t="shared" si="7"/>
-        <v>2.94271618625277</v>
-      </c>
-      <c r="X25" s="1">
-        <f t="shared" si="7"/>
-        <v>3.7312700172456301</v>
-      </c>
-      <c r="Y25" s="1">
-        <f t="shared" si="7"/>
-        <v>3.7086547494331601</v>
-      </c>
-      <c r="Z25" s="1">
-        <f t="shared" si="7"/>
-        <v>3.9858500417710898</v>
-      </c>
-      <c r="AA25" s="1">
-        <f t="shared" si="7"/>
-        <v>3.5993126689132802</v>
-      </c>
-      <c r="AB25" s="1">
-        <f t="shared" si="7"/>
-        <v>3.34090308727008</v>
-      </c>
-      <c r="AC25" s="1">
-        <f t="shared" si="7"/>
-        <v>2.5185170894944702</v>
-      </c>
-      <c r="AD25" s="1">
-        <f t="shared" si="7"/>
-        <v>3.3821237292203001</v>
-      </c>
-      <c r="AE25" s="1">
-        <f t="shared" si="7"/>
-        <v>4.1601198117244298</v>
-      </c>
-      <c r="AF25" s="1">
-        <f t="shared" si="7"/>
-        <v>2.03686868686869</v>
-      </c>
-      <c r="AG25" s="1">
-        <f t="shared" si="7"/>
-        <v>3.8431677018633499</v>
-      </c>
-      <c r="AH25" s="1">
-        <f t="shared" si="7"/>
-        <v>3.8425043875043898</v>
-      </c>
-      <c r="AI25" s="1">
-        <f t="shared" si="7"/>
-        <v>3.7864619581631702</v>
-      </c>
-      <c r="AJ25" s="1">
-        <f t="shared" si="7"/>
-        <v>3.4348140147685098</v>
-      </c>
-      <c r="AK25" s="1">
-        <f t="shared" si="7"/>
-        <v>3.8179287439613501</v>
-      </c>
-      <c r="AL25" s="1">
-        <f t="shared" ref="AL25:BB25" si="8">AL15</f>
-        <v>4.0735320686540204</v>
-      </c>
-      <c r="AM25" s="1">
-        <f t="shared" si="8"/>
-        <v>3.7132569374227602</v>
-      </c>
-      <c r="AN25" s="1">
-        <f t="shared" si="8"/>
-        <v>3.77142186661899</v>
-      </c>
-      <c r="AO25" s="1">
-        <f t="shared" si="8"/>
-        <v>3.4265288544358299</v>
-      </c>
-      <c r="AP25" s="1">
-        <f t="shared" si="8"/>
-        <v>3.3562743628185898</v>
-      </c>
-      <c r="AQ25" s="1">
-        <f t="shared" si="8"/>
-        <v>3.2277876213408399</v>
-      </c>
-      <c r="AR25" s="1">
-        <f t="shared" si="8"/>
-        <v>3.7242125846777001</v>
-      </c>
-      <c r="AS25" s="1">
-        <f t="shared" si="8"/>
-        <v>3.8140849673202601</v>
-      </c>
-      <c r="AT25" s="1">
-        <f t="shared" si="8"/>
-        <v>3.3129492164486898</v>
-      </c>
-      <c r="AU25" s="1">
-        <f t="shared" si="8"/>
-        <v>3.5360076304342498</v>
-      </c>
-      <c r="AV25" s="1">
-        <f t="shared" si="8"/>
-        <v>3.4360650006991502</v>
-      </c>
-      <c r="AW25" s="1">
-        <f t="shared" si="8"/>
-        <v>2.2463018181006</v>
-      </c>
-      <c r="AX25" s="1">
-        <f t="shared" si="8"/>
-        <v>3.9646403242147898</v>
-      </c>
-      <c r="AY25" s="1">
-        <f t="shared" si="8"/>
-        <v>4.0869157959779798</v>
-      </c>
-      <c r="AZ25" s="1">
-        <f t="shared" si="8"/>
-        <v>3.6859382151029698</v>
-      </c>
-      <c r="BA25" s="1">
-        <f t="shared" si="8"/>
-        <v>2.7252692542166201</v>
-      </c>
-      <c r="BB25" s="1">
-        <f t="shared" si="8"/>
-        <v>3.75770861833105</v>
-      </c>
+      <c r="D25" s="4"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
+      <c r="Q25"/>
+      <c r="R25"/>
+      <c r="S25"/>
+      <c r="T25"/>
+      <c r="U25"/>
+      <c r="V25"/>
+      <c r="W25"/>
+      <c r="X25"/>
+      <c r="Y25"/>
+      <c r="Z25"/>
+      <c r="AA25"/>
+      <c r="AB25"/>
+      <c r="AC25"/>
+      <c r="AD25"/>
+      <c r="AE25"/>
+      <c r="AF25"/>
+      <c r="AG25"/>
+      <c r="AH25"/>
+      <c r="AI25"/>
+      <c r="AJ25"/>
+      <c r="AK25"/>
+      <c r="AL25"/>
+      <c r="AM25"/>
+      <c r="AN25"/>
+      <c r="AO25"/>
+      <c r="AP25"/>
+      <c r="AQ25"/>
+      <c r="AR25"/>
+      <c r="AS25"/>
+      <c r="AT25"/>
+      <c r="AU25"/>
+      <c r="AV25"/>
+      <c r="AW25"/>
+      <c r="AX25"/>
+      <c r="AY25"/>
+      <c r="AZ25"/>
+      <c r="BA25"/>
+      <c r="BB25"/>
     </row>
     <row r="26" spans="1:54" x14ac:dyDescent="0.25">
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <f>MAX($F27:$BB27)</f>
-        <v>4.0691077830017734</v>
-      </c>
-      <c r="B27" s="1">
-        <f>INDEX($F23:$BB23, MATCH(A27,$F27:$BB27,0))</f>
+      <c r="D27" s="4"/>
+      <c r="F27" s="1">
+        <v>1001</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1002</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1003</v>
+      </c>
+      <c r="I27" s="1">
         <v>1004</v>
       </c>
-      <c r="C27" s="1">
-        <f t="shared" si="2"/>
-        <v>2.9641707164657518</v>
-      </c>
-      <c r="D27" s="4">
-        <f>INDEX($F23:$BB23, MATCH(C27,$F27:$BB27,0))</f>
+      <c r="J27" s="1">
+        <v>1005</v>
+      </c>
+      <c r="K27" s="1">
+        <v>1006</v>
+      </c>
+      <c r="L27" s="1">
+        <v>1007</v>
+      </c>
+      <c r="M27" s="1">
+        <v>1008</v>
+      </c>
+      <c r="N27" s="1">
+        <v>1010</v>
+      </c>
+      <c r="O27" s="1">
+        <v>1011</v>
+      </c>
+      <c r="P27" s="1">
+        <v>1012</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>1013</v>
+      </c>
+      <c r="R27" s="1">
+        <v>1014</v>
+      </c>
+      <c r="S27" s="1">
+        <v>1015</v>
+      </c>
+      <c r="T27" s="1">
+        <v>1016</v>
+      </c>
+      <c r="U27" s="1">
+        <v>1017</v>
+      </c>
+      <c r="V27" s="1">
+        <v>1018</v>
+      </c>
+      <c r="W27" s="1">
         <v>1019</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F27" s="1">
-        <f t="shared" ref="F27:AK27" si="9">AVERAGE(F4,F8,F12,F16,F20)</f>
-        <v>3.836999716162238</v>
-      </c>
-      <c r="G27" s="1">
-        <f t="shared" si="9"/>
-        <v>3.038033759192158</v>
-      </c>
-      <c r="H27" s="1">
-        <f t="shared" si="9"/>
-        <v>3.3521987800962885</v>
-      </c>
-      <c r="I27" s="1">
-        <f t="shared" si="9"/>
-        <v>4.0691077830017734</v>
-      </c>
-      <c r="J27" s="1">
-        <f t="shared" si="9"/>
-        <v>3.2496372868206236</v>
-      </c>
-      <c r="K27" s="1">
-        <f t="shared" si="9"/>
-        <v>3.3750587095281284</v>
-      </c>
-      <c r="L27" s="1">
-        <f t="shared" si="9"/>
-        <v>3.7181574789899559</v>
-      </c>
-      <c r="M27" s="1">
-        <f t="shared" si="9"/>
-        <v>3.4057184070565585</v>
-      </c>
-      <c r="N27" s="1">
-        <f t="shared" si="9"/>
-        <v>3.4929636675757259</v>
-      </c>
-      <c r="O27" s="1">
-        <f t="shared" si="9"/>
-        <v>3.632870032381438</v>
-      </c>
-      <c r="P27" s="1">
-        <f t="shared" si="9"/>
-        <v>3.7367074454290723</v>
-      </c>
-      <c r="Q27" s="1">
-        <f t="shared" si="9"/>
-        <v>3.7311746199111924</v>
-      </c>
-      <c r="R27" s="1">
-        <f t="shared" si="9"/>
-        <v>3.5994522848226942</v>
-      </c>
-      <c r="S27" s="1">
-        <f t="shared" si="9"/>
-        <v>3.7346341589312813</v>
-      </c>
-      <c r="T27" s="1">
-        <f t="shared" si="9"/>
-        <v>3.4440059092161044</v>
-      </c>
-      <c r="U27" s="1">
-        <f t="shared" si="9"/>
-        <v>3.5078706668838224</v>
-      </c>
-      <c r="V27" s="1">
-        <f t="shared" si="9"/>
-        <v>3.5572710376820185</v>
-      </c>
-      <c r="W27" s="1">
-        <f t="shared" si="9"/>
-        <v>2.9641707164657518</v>
-      </c>
       <c r="X27" s="1">
-        <f t="shared" si="9"/>
-        <v>3.4998115670316219</v>
+        <v>1020</v>
       </c>
       <c r="Y27" s="1">
-        <f t="shared" si="9"/>
-        <v>3.4246706016048982</v>
+        <v>1021</v>
       </c>
       <c r="Z27" s="1">
-        <f t="shared" si="9"/>
-        <v>3.7932879810725879</v>
+        <v>1022</v>
       </c>
       <c r="AA27" s="1">
-        <f t="shared" si="9"/>
-        <v>3.4545264908667561</v>
+        <v>1023</v>
       </c>
       <c r="AB27" s="1">
-        <f t="shared" si="9"/>
-        <v>3.3929043283781581</v>
+        <v>1024</v>
       </c>
       <c r="AC27" s="1">
-        <f t="shared" si="9"/>
-        <v>3.633197076748452</v>
+        <v>1025</v>
       </c>
       <c r="AD27" s="1">
-        <f t="shared" si="9"/>
-        <v>3.2361487283365475</v>
+        <v>1026</v>
       </c>
       <c r="AE27" s="1">
-        <f t="shared" si="9"/>
-        <v>3.5793532672236261</v>
+        <v>1027</v>
       </c>
       <c r="AF27" s="1">
-        <f t="shared" si="9"/>
-        <v>3.0197115047644338</v>
+        <v>1028</v>
       </c>
       <c r="AG27" s="1">
-        <f t="shared" si="9"/>
-        <v>3.3282033968414857</v>
+        <v>1029</v>
       </c>
       <c r="AH27" s="1">
-        <f t="shared" si="9"/>
-        <v>3.3981689145435099</v>
+        <v>1030</v>
       </c>
       <c r="AI27" s="1">
-        <f t="shared" si="9"/>
-        <v>3.1749925186225503</v>
+        <v>1031</v>
       </c>
       <c r="AJ27" s="1">
-        <f t="shared" si="9"/>
-        <v>3.1174880449047548</v>
+        <v>1032</v>
       </c>
       <c r="AK27" s="1">
-        <f t="shared" si="9"/>
-        <v>3.5407745933090973</v>
+        <v>1033</v>
       </c>
       <c r="AL27" s="1">
-        <f t="shared" ref="AL27:BB27" si="10">AVERAGE(AL4,AL8,AL12,AL16,AL20)</f>
-        <v>3.2802407985320015</v>
+        <v>1034</v>
       </c>
       <c r="AM27" s="1">
-        <f t="shared" si="10"/>
-        <v>3.8696590267556261</v>
+        <v>1035</v>
       </c>
       <c r="AN27" s="1">
-        <f t="shared" si="10"/>
-        <v>3.5865452581784902</v>
+        <v>1036</v>
       </c>
       <c r="AO27" s="1">
-        <f t="shared" si="10"/>
-        <v>3.3780837569171118</v>
+        <v>1037</v>
       </c>
       <c r="AP27" s="1">
-        <f t="shared" si="10"/>
-        <v>3.4189167229019737</v>
+        <v>1038</v>
       </c>
       <c r="AQ27" s="1">
-        <f t="shared" si="10"/>
-        <v>3.0578282212503636</v>
+        <v>1039</v>
       </c>
       <c r="AR27" s="1">
-        <f t="shared" si="10"/>
-        <v>3.9074090650626743</v>
+        <v>1040</v>
       </c>
       <c r="AS27" s="1">
-        <f t="shared" si="10"/>
-        <v>3.5087261136515613</v>
+        <v>1041</v>
       </c>
       <c r="AT27" s="1">
-        <f t="shared" si="10"/>
-        <v>3.5682406357438099</v>
+        <v>1042</v>
       </c>
       <c r="AU27" s="1">
-        <f t="shared" si="10"/>
-        <v>3.595180620700436</v>
+        <v>1043</v>
       </c>
       <c r="AV27" s="1">
-        <f t="shared" si="10"/>
-        <v>3.8120320302912076</v>
+        <v>1044</v>
       </c>
       <c r="AW27" s="1">
-        <f t="shared" si="10"/>
-        <v>3.21842695585755</v>
+        <v>1045</v>
       </c>
       <c r="AX27" s="1">
-        <f t="shared" si="10"/>
-        <v>3.8390810554496979</v>
+        <v>1046</v>
       </c>
       <c r="AY27" s="1">
-        <f t="shared" si="10"/>
-        <v>3.5976904733482917</v>
+        <v>1047</v>
       </c>
       <c r="AZ27" s="1">
-        <f t="shared" si="10"/>
-        <v>3.9701483631683758</v>
+        <v>1048</v>
       </c>
       <c r="BA27" s="1">
-        <f t="shared" si="10"/>
-        <v>3.5098776477790414</v>
+        <v>1049</v>
       </c>
       <c r="BB27" s="1">
-        <f t="shared" si="10"/>
-        <v>3.6133409698896015</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="28" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
+        <f>MAX($F28:$BB28)</f>
+        <v>4.0494675822673578</v>
+      </c>
+      <c r="B28" s="1">
+        <f>INDEX($F27:$BB27, MATCH(A28,$F28:$BB28,0))</f>
+        <v>1004</v>
+      </c>
+      <c r="C28" s="1">
+        <f>MIN($F28:$BB28)</f>
+        <v>2.9792394743825783</v>
+      </c>
+      <c r="D28" s="4">
+        <f t="shared" ref="D28" si="6">INDEX($F27:$BB27, MATCH(C28,$F28:$BB28,0))</f>
+        <v>1019</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" ref="F28:AK28" si="7">AVERAGE(F3,F7,F11,F15,F19)</f>
+        <v>3.8187848892165883</v>
+      </c>
+      <c r="G28" s="1">
+        <f t="shared" si="7"/>
+        <v>3.0575153813140616</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" si="7"/>
+        <v>3.345939671463416</v>
+      </c>
+      <c r="I28" s="1">
+        <f t="shared" si="7"/>
+        <v>4.0494675822673578</v>
+      </c>
+      <c r="J28" s="1">
+        <f t="shared" si="7"/>
+        <v>3.2513199354546578</v>
+      </c>
+      <c r="K28" s="1">
+        <f t="shared" si="7"/>
+        <v>3.3664560310712921</v>
+      </c>
+      <c r="L28" s="1">
+        <f t="shared" si="7"/>
+        <v>3.7103940129899762</v>
+      </c>
+      <c r="M28" s="1">
+        <f t="shared" si="7"/>
+        <v>3.404807487154426</v>
+      </c>
+      <c r="N28" s="1">
+        <f t="shared" si="7"/>
+        <v>3.4884981781875739</v>
+      </c>
+      <c r="O28" s="1">
+        <f t="shared" si="7"/>
+        <v>3.6282642306456481</v>
+      </c>
+      <c r="P28" s="1">
+        <f t="shared" si="7"/>
+        <v>3.707644599930414</v>
+      </c>
+      <c r="Q28" s="1">
+        <f t="shared" si="7"/>
+        <v>3.7232957590696762</v>
+      </c>
+      <c r="R28" s="1">
+        <f t="shared" si="7"/>
+        <v>3.6111785487726125</v>
+      </c>
+      <c r="S28" s="1">
+        <f t="shared" si="7"/>
+        <v>3.7111997267599741</v>
+      </c>
+      <c r="T28" s="1">
+        <f t="shared" si="7"/>
+        <v>3.4436691683669798</v>
+      </c>
+      <c r="U28" s="1">
+        <f t="shared" si="7"/>
+        <v>3.5080721804598518</v>
+      </c>
+      <c r="V28" s="1">
+        <f t="shared" si="7"/>
+        <v>3.5288434906246144</v>
+      </c>
+      <c r="W28" s="1">
+        <f t="shared" si="7"/>
+        <v>2.9792394743825783</v>
+      </c>
+      <c r="X28" s="1">
+        <f t="shared" si="7"/>
+        <v>3.4856366376697898</v>
+      </c>
+      <c r="Y28" s="1">
+        <f t="shared" si="7"/>
+        <v>3.436311929278864</v>
+      </c>
+      <c r="Z28" s="1">
+        <f t="shared" si="7"/>
+        <v>3.7980745050040405</v>
+      </c>
+      <c r="AA28" s="1">
+        <f t="shared" si="7"/>
+        <v>3.4463031352684661</v>
+      </c>
+      <c r="AB28" s="1">
+        <f t="shared" si="7"/>
+        <v>3.3909504037412956</v>
+      </c>
+      <c r="AC28" s="1">
+        <f t="shared" si="7"/>
+        <v>3.6161081817520198</v>
+      </c>
+      <c r="AD28" s="1">
+        <f t="shared" si="7"/>
+        <v>3.2287821547142146</v>
+      </c>
+      <c r="AE28" s="1">
+        <f t="shared" si="7"/>
+        <v>3.5747824439551414</v>
+      </c>
+      <c r="AF28" s="1">
+        <f t="shared" si="7"/>
+        <v>3.0093782502815918</v>
+      </c>
+      <c r="AG28" s="1">
+        <f t="shared" si="7"/>
+        <v>3.3322339719353797</v>
+      </c>
+      <c r="AH28" s="1">
+        <f t="shared" si="7"/>
+        <v>3.4084876822855774</v>
+      </c>
+      <c r="AI28" s="1">
+        <f t="shared" si="7"/>
+        <v>3.1702591559208102</v>
+      </c>
+      <c r="AJ28" s="1">
+        <f t="shared" si="7"/>
+        <v>3.1192089728289125</v>
+      </c>
+      <c r="AK28" s="1">
+        <f t="shared" si="7"/>
+        <v>3.5356575777367851</v>
+      </c>
+      <c r="AL28" s="1">
+        <f t="shared" ref="AL28:BB28" si="8">AVERAGE(AL3,AL7,AL11,AL15,AL19)</f>
+        <v>3.2770832733504838</v>
+      </c>
+      <c r="AM28" s="1">
+        <f t="shared" si="8"/>
+        <v>3.872181058332842</v>
+      </c>
+      <c r="AN28" s="1">
+        <f t="shared" si="8"/>
+        <v>3.5692364069521019</v>
+      </c>
+      <c r="AO28" s="1">
+        <f t="shared" si="8"/>
+        <v>3.3959630914627383</v>
+      </c>
+      <c r="AP28" s="1">
+        <f t="shared" si="8"/>
+        <v>3.4042812049559417</v>
+      </c>
+      <c r="AQ28" s="1">
+        <f t="shared" si="8"/>
+        <v>3.049199999136428</v>
+      </c>
+      <c r="AR28" s="1">
+        <f t="shared" si="8"/>
+        <v>3.8815701951722317</v>
+      </c>
+      <c r="AS28" s="1">
+        <f t="shared" si="8"/>
+        <v>3.515918457109148</v>
+      </c>
+      <c r="AT28" s="1">
+        <f t="shared" si="8"/>
+        <v>3.5399366501057559</v>
+      </c>
+      <c r="AU28" s="1">
+        <f t="shared" si="8"/>
+        <v>3.5941765771972021</v>
+      </c>
+      <c r="AV28" s="1">
+        <f t="shared" si="8"/>
+        <v>3.7848318625595327</v>
+      </c>
+      <c r="AW28" s="1">
+        <f t="shared" si="8"/>
+        <v>3.2185698957130642</v>
+      </c>
+      <c r="AX28" s="1">
+        <f t="shared" si="8"/>
+        <v>3.8188833634970698</v>
+      </c>
+      <c r="AY28" s="1">
+        <f t="shared" si="8"/>
+        <v>3.597005243646838</v>
+      </c>
+      <c r="AZ28" s="1">
+        <f t="shared" si="8"/>
+        <v>3.9515174123062708</v>
+      </c>
+      <c r="BA28" s="1">
+        <f t="shared" si="8"/>
+        <v>3.488782738192286</v>
+      </c>
+      <c r="BB28" s="1">
+        <f t="shared" si="8"/>
+        <v>3.5918276440263242</v>
+      </c>
+    </row>
+    <row r="29" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <f t="shared" si="0"/>
+        <v>4.4273705096073499</v>
+      </c>
+      <c r="B29" s="1">
+        <f>INDEX($F27:$BB27, MATCH(A29,$F29:$BB29,0))</f>
+        <v>1007</v>
+      </c>
+      <c r="C29" s="1">
+        <f t="shared" si="2"/>
+        <v>2.03686868686869</v>
+      </c>
+      <c r="D29" s="4">
+        <f>INDEX($F27:$BB27, MATCH(C29,$F29:$BB29,0))</f>
+        <v>1028</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" ref="F29:AK29" si="9">F15</f>
+        <v>3.5455409631019399</v>
+      </c>
+      <c r="G29" s="1">
+        <f t="shared" si="9"/>
+        <v>3.19562271709674</v>
+      </c>
+      <c r="H29" s="1">
+        <f t="shared" si="9"/>
+        <v>3.3399783149320599</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" si="9"/>
+        <v>3.85829764598147</v>
+      </c>
+      <c r="J29" s="1">
+        <f t="shared" si="9"/>
+        <v>3.38473761068472</v>
+      </c>
+      <c r="K29" s="1">
+        <f t="shared" si="9"/>
+        <v>2.9915214866434399</v>
+      </c>
+      <c r="L29" s="1">
+        <f t="shared" si="9"/>
+        <v>4.4273705096073499</v>
+      </c>
+      <c r="M29" s="1">
+        <f t="shared" si="9"/>
+        <v>3.2196004908832099</v>
+      </c>
+      <c r="N29" s="1">
+        <f t="shared" si="9"/>
+        <v>3.5461982631189901</v>
+      </c>
+      <c r="O29" s="1">
+        <f t="shared" si="9"/>
+        <v>3.8737610830820701</v>
+      </c>
+      <c r="P29" s="1">
+        <f t="shared" si="9"/>
+        <v>3.9288100266401602</v>
+      </c>
+      <c r="Q29" s="1">
+        <f t="shared" si="9"/>
+        <v>3.87889675806696</v>
+      </c>
+      <c r="R29" s="1">
+        <f t="shared" si="9"/>
+        <v>4.0120162858884703</v>
+      </c>
+      <c r="S29" s="1">
+        <f t="shared" si="9"/>
+        <v>4.0796982640836497</v>
+      </c>
+      <c r="T29" s="1">
+        <f t="shared" si="9"/>
+        <v>3.9474467418546402</v>
+      </c>
+      <c r="U29" s="1">
+        <f t="shared" si="9"/>
+        <v>3.7063725490196102</v>
+      </c>
+      <c r="V29" s="1">
+        <f t="shared" si="9"/>
+        <v>3.31071329254728</v>
+      </c>
+      <c r="W29" s="1">
+        <f t="shared" si="9"/>
+        <v>2.94271618625277</v>
+      </c>
+      <c r="X29" s="1">
+        <f t="shared" si="9"/>
+        <v>3.7312700172456301</v>
+      </c>
+      <c r="Y29" s="1">
+        <f t="shared" si="9"/>
+        <v>3.7086547494331601</v>
+      </c>
+      <c r="Z29" s="1">
+        <f t="shared" si="9"/>
+        <v>3.9858500417710898</v>
+      </c>
+      <c r="AA29" s="1">
+        <f t="shared" si="9"/>
+        <v>3.5993126689132802</v>
+      </c>
+      <c r="AB29" s="1">
+        <f t="shared" si="9"/>
+        <v>3.34090308727008</v>
+      </c>
+      <c r="AC29" s="1">
+        <f t="shared" si="9"/>
+        <v>2.5185170894944702</v>
+      </c>
+      <c r="AD29" s="1">
+        <f t="shared" si="9"/>
+        <v>3.3821237292203001</v>
+      </c>
+      <c r="AE29" s="1">
+        <f t="shared" si="9"/>
+        <v>4.1601198117244298</v>
+      </c>
+      <c r="AF29" s="1">
+        <f t="shared" si="9"/>
+        <v>2.03686868686869</v>
+      </c>
+      <c r="AG29" s="1">
+        <f t="shared" si="9"/>
+        <v>3.8431677018633499</v>
+      </c>
+      <c r="AH29" s="1">
+        <f t="shared" si="9"/>
+        <v>3.8425043875043898</v>
+      </c>
+      <c r="AI29" s="1">
+        <f t="shared" si="9"/>
+        <v>3.7864619581631702</v>
+      </c>
+      <c r="AJ29" s="1">
+        <f t="shared" si="9"/>
+        <v>3.4348140147685098</v>
+      </c>
+      <c r="AK29" s="1">
+        <f t="shared" si="9"/>
+        <v>3.8179287439613501</v>
+      </c>
+      <c r="AL29" s="1">
+        <f t="shared" ref="AL29:BB29" si="10">AL15</f>
+        <v>4.0735320686540204</v>
+      </c>
+      <c r="AM29" s="1">
+        <f t="shared" si="10"/>
+        <v>3.7132569374227602</v>
+      </c>
+      <c r="AN29" s="1">
+        <f t="shared" si="10"/>
+        <v>3.77142186661899</v>
+      </c>
+      <c r="AO29" s="1">
+        <f t="shared" si="10"/>
+        <v>3.4265288544358299</v>
+      </c>
+      <c r="AP29" s="1">
+        <f t="shared" si="10"/>
+        <v>3.3562743628185898</v>
+      </c>
+      <c r="AQ29" s="1">
+        <f t="shared" si="10"/>
+        <v>3.2277876213408399</v>
+      </c>
+      <c r="AR29" s="1">
+        <f t="shared" si="10"/>
+        <v>3.7242125846777001</v>
+      </c>
+      <c r="AS29" s="1">
+        <f t="shared" si="10"/>
+        <v>3.8140849673202601</v>
+      </c>
+      <c r="AT29" s="1">
+        <f t="shared" si="10"/>
+        <v>3.3129492164486898</v>
+      </c>
+      <c r="AU29" s="1">
+        <f t="shared" si="10"/>
+        <v>3.5360076304342498</v>
+      </c>
+      <c r="AV29" s="1">
+        <f t="shared" si="10"/>
+        <v>3.4360650006991502</v>
+      </c>
+      <c r="AW29" s="1">
+        <f t="shared" si="10"/>
+        <v>2.2463018181006</v>
+      </c>
+      <c r="AX29" s="1">
+        <f t="shared" si="10"/>
+        <v>3.9646403242147898</v>
+      </c>
+      <c r="AY29" s="1">
+        <f t="shared" si="10"/>
+        <v>4.0869157959779798</v>
+      </c>
+      <c r="AZ29" s="1">
+        <f t="shared" si="10"/>
+        <v>3.6859382151029698</v>
+      </c>
+      <c r="BA29" s="1">
+        <f t="shared" si="10"/>
+        <v>2.7252692542166201</v>
+      </c>
+      <c r="BB29" s="1">
+        <f t="shared" si="10"/>
+        <v>3.75770861833105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <f>MAX($F31:$BB31)</f>
+        <v>4.0691077830017734</v>
+      </c>
+      <c r="B31" s="1">
+        <f>INDEX($F27:$BB27, MATCH(A31,$F31:$BB31,0))</f>
+        <v>1004</v>
+      </c>
+      <c r="C31" s="1">
+        <f t="shared" si="2"/>
+        <v>2.9641707164657518</v>
+      </c>
+      <c r="D31" s="4">
+        <f>INDEX($F27:$BB27, MATCH(C31,$F31:$BB31,0))</f>
+        <v>1019</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" ref="F31:AK31" si="11">AVERAGE(F4,F8,F12,F16,F20)</f>
+        <v>3.836999716162238</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" si="11"/>
+        <v>3.038033759192158</v>
+      </c>
+      <c r="H31" s="1">
+        <f t="shared" si="11"/>
+        <v>3.3521987800962885</v>
+      </c>
+      <c r="I31" s="1">
+        <f t="shared" si="11"/>
+        <v>4.0691077830017734</v>
+      </c>
+      <c r="J31" s="1">
+        <f t="shared" si="11"/>
+        <v>3.2496372868206236</v>
+      </c>
+      <c r="K31" s="1">
+        <f t="shared" si="11"/>
+        <v>3.3750587095281284</v>
+      </c>
+      <c r="L31" s="1">
+        <f t="shared" si="11"/>
+        <v>3.7181574789899559</v>
+      </c>
+      <c r="M31" s="1">
+        <f t="shared" si="11"/>
+        <v>3.4057184070565585</v>
+      </c>
+      <c r="N31" s="1">
+        <f t="shared" si="11"/>
+        <v>3.4929636675757259</v>
+      </c>
+      <c r="O31" s="1">
+        <f t="shared" si="11"/>
+        <v>3.632870032381438</v>
+      </c>
+      <c r="P31" s="1">
+        <f t="shared" si="11"/>
+        <v>3.7367074454290723</v>
+      </c>
+      <c r="Q31" s="1">
+        <f t="shared" si="11"/>
+        <v>3.7311746199111924</v>
+      </c>
+      <c r="R31" s="1">
+        <f t="shared" si="11"/>
+        <v>3.5994522848226942</v>
+      </c>
+      <c r="S31" s="1">
+        <f t="shared" si="11"/>
+        <v>3.7346341589312813</v>
+      </c>
+      <c r="T31" s="1">
+        <f t="shared" si="11"/>
+        <v>3.4440059092161044</v>
+      </c>
+      <c r="U31" s="1">
+        <f t="shared" si="11"/>
+        <v>3.5078706668838224</v>
+      </c>
+      <c r="V31" s="1">
+        <f t="shared" si="11"/>
+        <v>3.5572710376820185</v>
+      </c>
+      <c r="W31" s="1">
+        <f t="shared" si="11"/>
+        <v>2.9641707164657518</v>
+      </c>
+      <c r="X31" s="1">
+        <f t="shared" si="11"/>
+        <v>3.4998115670316219</v>
+      </c>
+      <c r="Y31" s="1">
+        <f t="shared" si="11"/>
+        <v>3.4246706016048982</v>
+      </c>
+      <c r="Z31" s="1">
+        <f t="shared" si="11"/>
+        <v>3.7932879810725879</v>
+      </c>
+      <c r="AA31" s="1">
+        <f t="shared" si="11"/>
+        <v>3.4545264908667561</v>
+      </c>
+      <c r="AB31" s="1">
+        <f t="shared" si="11"/>
+        <v>3.3929043283781581</v>
+      </c>
+      <c r="AC31" s="1">
+        <f t="shared" si="11"/>
+        <v>3.633197076748452</v>
+      </c>
+      <c r="AD31" s="1">
+        <f t="shared" si="11"/>
+        <v>3.2361487283365475</v>
+      </c>
+      <c r="AE31" s="1">
+        <f t="shared" si="11"/>
+        <v>3.5793532672236261</v>
+      </c>
+      <c r="AF31" s="1">
+        <f t="shared" si="11"/>
+        <v>3.0197115047644338</v>
+      </c>
+      <c r="AG31" s="1">
+        <f t="shared" si="11"/>
+        <v>3.3282033968414857</v>
+      </c>
+      <c r="AH31" s="1">
+        <f t="shared" si="11"/>
+        <v>3.3981689145435099</v>
+      </c>
+      <c r="AI31" s="1">
+        <f t="shared" si="11"/>
+        <v>3.1749925186225503</v>
+      </c>
+      <c r="AJ31" s="1">
+        <f t="shared" si="11"/>
+        <v>3.1174880449047548</v>
+      </c>
+      <c r="AK31" s="1">
+        <f t="shared" si="11"/>
+        <v>3.5407745933090973</v>
+      </c>
+      <c r="AL31" s="1">
+        <f t="shared" ref="AL31:BB31" si="12">AVERAGE(AL4,AL8,AL12,AL16,AL20)</f>
+        <v>3.2802407985320015</v>
+      </c>
+      <c r="AM31" s="1">
+        <f t="shared" si="12"/>
+        <v>3.8696590267556261</v>
+      </c>
+      <c r="AN31" s="1">
+        <f t="shared" si="12"/>
+        <v>3.5865452581784902</v>
+      </c>
+      <c r="AO31" s="1">
+        <f t="shared" si="12"/>
+        <v>3.3780837569171118</v>
+      </c>
+      <c r="AP31" s="1">
+        <f t="shared" si="12"/>
+        <v>3.4189167229019737</v>
+      </c>
+      <c r="AQ31" s="1">
+        <f t="shared" si="12"/>
+        <v>3.0578282212503636</v>
+      </c>
+      <c r="AR31" s="1">
+        <f t="shared" si="12"/>
+        <v>3.9074090650626743</v>
+      </c>
+      <c r="AS31" s="1">
+        <f t="shared" si="12"/>
+        <v>3.5087261136515613</v>
+      </c>
+      <c r="AT31" s="1">
+        <f t="shared" si="12"/>
+        <v>3.5682406357438099</v>
+      </c>
+      <c r="AU31" s="1">
+        <f t="shared" si="12"/>
+        <v>3.595180620700436</v>
+      </c>
+      <c r="AV31" s="1">
+        <f t="shared" si="12"/>
+        <v>3.8120320302912076</v>
+      </c>
+      <c r="AW31" s="1">
+        <f t="shared" si="12"/>
+        <v>3.21842695585755</v>
+      </c>
+      <c r="AX31" s="1">
+        <f t="shared" si="12"/>
+        <v>3.8390810554496979</v>
+      </c>
+      <c r="AY31" s="1">
+        <f t="shared" si="12"/>
+        <v>3.5976904733482917</v>
+      </c>
+      <c r="AZ31" s="1">
+        <f t="shared" si="12"/>
+        <v>3.9701483631683758</v>
+      </c>
+      <c r="BA31" s="1">
+        <f t="shared" si="12"/>
+        <v>3.5098776477790414</v>
+      </c>
+      <c r="BB31" s="1">
+        <f t="shared" si="12"/>
+        <v>3.6133409698896015</v>
+      </c>
+    </row>
+    <row r="32" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <f t="shared" si="0"/>
         <v>4.4702534778472103</v>
       </c>
-      <c r="B28" s="1">
-        <f>INDEX($F23:$BB23, MATCH(A28,$F28:$BB28,0))</f>
+      <c r="B32" s="1">
+        <f>INDEX($F27:$BB27, MATCH(A32,$F32:$BB32,0))</f>
         <v>1007</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C32" s="1">
         <f t="shared" si="2"/>
         <v>2.0378198772935598</v>
       </c>
-      <c r="D28" s="4">
-        <f>INDEX($F23:$BB23, MATCH(C28,$F28:$BB28,0))</f>
+      <c r="D32" s="4">
+        <f>INDEX($F27:$BB27, MATCH(C32,$F32:$BB32,0))</f>
         <v>1028</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F28" s="1">
-        <f t="shared" ref="F28:AK28" si="11">F16</f>
+      <c r="E32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" ref="F32:AK32" si="13">F16</f>
         <v>3.6209684633051502</v>
       </c>
-      <c r="G28" s="1">
-        <f t="shared" si="11"/>
+      <c r="G32" s="1">
+        <f t="shared" si="13"/>
         <v>3.2261000764481498</v>
       </c>
-      <c r="H28" s="1">
-        <f t="shared" si="11"/>
+      <c r="H32" s="1">
+        <f t="shared" si="13"/>
         <v>3.3597115360234699</v>
       </c>
-      <c r="I28" s="1">
-        <f t="shared" si="11"/>
+      <c r="I32" s="1">
+        <f t="shared" si="13"/>
         <v>3.8833263714842698</v>
       </c>
-      <c r="J28" s="1">
-        <f t="shared" si="11"/>
+      <c r="J32" s="1">
+        <f t="shared" si="13"/>
         <v>3.36860559448077</v>
       </c>
-      <c r="K28" s="1">
-        <f t="shared" si="11"/>
+      <c r="K32" s="1">
+        <f t="shared" si="13"/>
         <v>3.0267985572259102</v>
       </c>
-      <c r="L28" s="1">
-        <f t="shared" si="11"/>
+      <c r="L32" s="1">
+        <f t="shared" si="13"/>
         <v>4.4702534778472103</v>
       </c>
-      <c r="M28" s="1">
-        <f t="shared" si="11"/>
+      <c r="M32" s="1">
+        <f t="shared" si="13"/>
         <v>3.16646219881132</v>
       </c>
-      <c r="N28" s="1">
-        <f t="shared" si="11"/>
+      <c r="N32" s="1">
+        <f t="shared" si="13"/>
         <v>3.5174888999146301</v>
       </c>
-      <c r="O28" s="1">
-        <f t="shared" si="11"/>
+      <c r="O32" s="1">
+        <f t="shared" si="13"/>
         <v>3.9084019898991702</v>
       </c>
-      <c r="P28" s="1">
-        <f t="shared" si="11"/>
+      <c r="P32" s="1">
+        <f t="shared" si="13"/>
         <v>3.9341810966811002</v>
       </c>
-      <c r="Q28" s="1">
-        <f t="shared" si="11"/>
+      <c r="Q32" s="1">
+        <f t="shared" si="13"/>
         <v>3.9269408369408398</v>
       </c>
-      <c r="R28" s="1">
-        <f t="shared" si="11"/>
+      <c r="R32" s="1">
+        <f t="shared" si="13"/>
         <v>4.0136354246122599</v>
       </c>
-      <c r="S28" s="1">
-        <f t="shared" si="11"/>
+      <c r="S32" s="1">
+        <f t="shared" si="13"/>
         <v>4.1055562858194401</v>
       </c>
-      <c r="T28" s="1">
-        <f t="shared" si="11"/>
+      <c r="T32" s="1">
+        <f t="shared" si="13"/>
         <v>3.9739781385936102</v>
       </c>
-      <c r="U28" s="1">
-        <f t="shared" si="11"/>
+      <c r="U32" s="1">
+        <f t="shared" si="13"/>
         <v>3.7235026399551301</v>
       </c>
-      <c r="V28" s="1">
-        <f t="shared" si="11"/>
+      <c r="V32" s="1">
+        <f t="shared" si="13"/>
         <v>3.3130914497346602</v>
       </c>
-      <c r="W28" s="1">
-        <f t="shared" si="11"/>
+      <c r="W32" s="1">
+        <f t="shared" si="13"/>
         <v>2.90516058532303</v>
       </c>
-      <c r="X28" s="1">
-        <f t="shared" si="11"/>
+      <c r="X32" s="1">
+        <f t="shared" si="13"/>
         <v>3.7819303388413399</v>
       </c>
-      <c r="Y28" s="1">
-        <f t="shared" si="11"/>
+      <c r="Y32" s="1">
+        <f t="shared" si="13"/>
         <v>3.7130022186380902</v>
       </c>
-      <c r="Z28" s="1">
-        <f t="shared" si="11"/>
+      <c r="Z32" s="1">
+        <f t="shared" si="13"/>
         <v>3.9928706775637899</v>
       </c>
-      <c r="AA28" s="1">
-        <f t="shared" si="11"/>
+      <c r="AA32" s="1">
+        <f t="shared" si="13"/>
         <v>3.5880456424790999</v>
       </c>
-      <c r="AB28" s="1">
-        <f t="shared" si="11"/>
+      <c r="AB32" s="1">
+        <f t="shared" si="13"/>
         <v>3.36267293683794</v>
       </c>
-      <c r="AC28" s="1">
-        <f t="shared" si="11"/>
+      <c r="AC32" s="1">
+        <f t="shared" si="13"/>
         <v>2.5244370966096898</v>
       </c>
-      <c r="AD28" s="1">
-        <f t="shared" si="11"/>
+      <c r="AD32" s="1">
+        <f t="shared" si="13"/>
         <v>3.44327601215097</v>
       </c>
-      <c r="AE28" s="1">
-        <f t="shared" si="11"/>
+      <c r="AE32" s="1">
+        <f t="shared" si="13"/>
         <v>4.14422889784161</v>
       </c>
-      <c r="AF28" s="1">
-        <f t="shared" si="11"/>
+      <c r="AF32" s="1">
+        <f t="shared" si="13"/>
         <v>2.0378198772935598</v>
       </c>
-      <c r="AG28" s="1">
-        <f t="shared" si="11"/>
+      <c r="AG32" s="1">
+        <f t="shared" si="13"/>
         <v>3.8290935211465</v>
       </c>
-      <c r="AH28" s="1">
-        <f t="shared" si="11"/>
+      <c r="AH32" s="1">
+        <f t="shared" si="13"/>
         <v>3.8337609918530999</v>
       </c>
-      <c r="AI28" s="1">
-        <f t="shared" si="11"/>
+      <c r="AI32" s="1">
+        <f t="shared" si="13"/>
         <v>3.7960199511972998</v>
       </c>
-      <c r="AJ28" s="1">
-        <f t="shared" si="11"/>
+      <c r="AJ32" s="1">
+        <f t="shared" si="13"/>
         <v>3.4563239441696201</v>
       </c>
-      <c r="AK28" s="1">
-        <f t="shared" si="11"/>
+      <c r="AK32" s="1">
+        <f t="shared" si="13"/>
         <v>3.7992109308085902</v>
       </c>
-      <c r="AL28" s="1">
-        <f t="shared" ref="AL28:BB28" si="12">AL16</f>
+      <c r="AL32" s="1">
+        <f t="shared" ref="AL32:BB32" si="14">AL16</f>
         <v>4.0998172514619897</v>
       </c>
-      <c r="AM28" s="1">
-        <f t="shared" si="12"/>
+      <c r="AM32" s="1">
+        <f t="shared" si="14"/>
         <v>3.7460125755961999</v>
       </c>
-      <c r="AN28" s="1">
-        <f t="shared" si="12"/>
+      <c r="AN32" s="1">
+        <f t="shared" si="14"/>
         <v>3.7971174528474299</v>
       </c>
-      <c r="AO28" s="1">
-        <f t="shared" si="12"/>
+      <c r="AO32" s="1">
+        <f t="shared" si="14"/>
         <v>3.3921672869041299</v>
       </c>
-      <c r="AP28" s="1">
-        <f t="shared" si="12"/>
+      <c r="AP32" s="1">
+        <f t="shared" si="14"/>
         <v>3.4254868832206999</v>
       </c>
-      <c r="AQ28" s="1">
-        <f t="shared" si="12"/>
+      <c r="AQ32" s="1">
+        <f t="shared" si="14"/>
         <v>3.2391596345084701</v>
       </c>
-      <c r="AR28" s="1">
-        <f t="shared" si="12"/>
+      <c r="AR32" s="1">
+        <f t="shared" si="14"/>
         <v>3.72368764526975</v>
       </c>
-      <c r="AS28" s="1">
-        <f t="shared" si="12"/>
+      <c r="AS32" s="1">
+        <f t="shared" si="14"/>
         <v>3.8401452620202599</v>
       </c>
-      <c r="AT28" s="1">
-        <f t="shared" si="12"/>
+      <c r="AT32" s="1">
+        <f t="shared" si="14"/>
         <v>3.34856994856995</v>
       </c>
-      <c r="AU28" s="1">
-        <f t="shared" si="12"/>
+      <c r="AU32" s="1">
+        <f t="shared" si="14"/>
         <v>3.5254560468550502</v>
       </c>
-      <c r="AV28" s="1">
-        <f t="shared" si="12"/>
+      <c r="AV32" s="1">
+        <f t="shared" si="14"/>
         <v>3.5109544055318098</v>
       </c>
-      <c r="AW28" s="1">
-        <f t="shared" si="12"/>
+      <c r="AW32" s="1">
+        <f t="shared" si="14"/>
         <v>2.2284475737637299</v>
       </c>
-      <c r="AX28" s="1">
-        <f t="shared" si="12"/>
+      <c r="AX32" s="1">
+        <f t="shared" si="14"/>
         <v>3.95716188177702</v>
       </c>
-      <c r="AY28" s="1">
-        <f t="shared" si="12"/>
+      <c r="AY32" s="1">
+        <f t="shared" si="14"/>
         <v>4.1116455063478501</v>
       </c>
-      <c r="AZ28" s="1">
-        <f t="shared" si="12"/>
+      <c r="AZ32" s="1">
+        <f t="shared" si="14"/>
         <v>3.68522843643811</v>
       </c>
-      <c r="BA28" s="1">
-        <f t="shared" si="12"/>
+      <c r="BA32" s="1">
+        <f t="shared" si="14"/>
         <v>2.7364546809256698</v>
       </c>
-      <c r="BB28" s="1">
-        <f t="shared" si="12"/>
+      <c r="BB32" s="1">
+        <f t="shared" si="14"/>
         <v>3.8345972215832398</v>
       </c>
     </row>
-    <row r="30" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="F30" s="5" t="s">
+    <row r="33" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D33" s="6"/>
+    </row>
+    <row r="34" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="E34" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="L30" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="L34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
     </row>
-    <row r="31" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="F31" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K31" s="3" t="s">
+    <row r="35" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="E35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K35" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L31" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N31" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P31" s="2" t="s">
-        <v>21</v>
+      <c r="L35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q35" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="E32" s="1" t="s">
+    <row r="36" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D36" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F32" s="1">
-        <f>_xlfn.QUARTILE.INC($F$3:$BB$3,K32)</f>
+      <c r="E36" s="1">
+        <f>_xlfn.QUARTILE.INC($F$23:$BB$23,K36)</f>
+        <v>1.5832857889982399</v>
+      </c>
+      <c r="F36" s="1">
+        <f>_xlfn.QUARTILE.INC($F$3:$BB$3,K36)</f>
         <v>2.3018575851393202</v>
       </c>
-      <c r="G32" s="1">
-        <f>_xlfn.QUARTILE.INC($F$7:$BB$7,K32)</f>
+      <c r="G36" s="1">
+        <f>_xlfn.QUARTILE.INC($F$7:$BB$7,K36)</f>
         <v>2.6516057585824999</v>
       </c>
-      <c r="H32" s="1">
-        <f>_xlfn.QUARTILE.INC($F$11:$BB$11,K32)</f>
+      <c r="H36" s="1">
+        <f>_xlfn.QUARTILE.INC($F$11:$BB$11,K36)</f>
         <v>2.48304136804368</v>
       </c>
-      <c r="I32" s="1">
-        <f>_xlfn.QUARTILE.INC($F$15:$BB$15,K32)</f>
+      <c r="I36" s="1">
+        <f>_xlfn.QUARTILE.INC($F$15:$BB$15,K36)</f>
         <v>2.03686868686869</v>
       </c>
-      <c r="J32" s="1">
-        <f>_xlfn.QUARTILE.INC($F$19:$BB$19,K32)</f>
+      <c r="J36" s="1">
+        <f>_xlfn.QUARTILE.INC($F$19:$BB$19,K36)</f>
         <v>2.6893405586451</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K36" s="3">
         <v>0</v>
       </c>
-      <c r="L32" s="1">
-        <f>_xlfn.QUARTILE.INC($F$4:$BB$4,K32)</f>
+      <c r="L36" s="1">
+        <f>_xlfn.QUARTILE.INC($F$24:$BB$24,K36)</f>
+        <v>1.5505890297389799</v>
+      </c>
+      <c r="M36" s="1">
+        <f>_xlfn.QUARTILE.INC($F$4:$BB$4,K36)</f>
         <v>2.2487604343187102</v>
       </c>
-      <c r="M32" s="1">
-        <f>_xlfn.QUARTILE.INC($F$8:$BB$8,K32)</f>
+      <c r="N36" s="1">
+        <f>_xlfn.QUARTILE.INC($F$8:$BB$8,K36)</f>
         <v>2.6087598675833998</v>
       </c>
-      <c r="N32" s="1">
-        <f>_xlfn.QUARTILE.INC($F$15:$BB$15,K32)</f>
+      <c r="O36" s="1">
+        <f>_xlfn.QUARTILE.INC($F$12:$BB$12,K36)</f>
+        <v>2.46987016869471</v>
+      </c>
+      <c r="P36" s="1">
+        <f>_xlfn.QUARTILE.INC($F$16:$BB$16,K36)</f>
+        <v>2.0378198772935598</v>
+      </c>
+      <c r="Q36" s="1">
+        <f>_xlfn.QUARTILE.INC($F$20:$BB$20,K36)</f>
+        <v>2.6652506223934802</v>
+      </c>
+    </row>
+    <row r="37" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="1">
+        <f>_xlfn.QUARTILE.INC($F$23:$BB$23,K37)</f>
+        <v>2.3003271814013502</v>
+      </c>
+      <c r="F37" s="1">
+        <f>_xlfn.QUARTILE.INC($F$3:$BB$3,K37)</f>
+        <v>2.6682347670250901</v>
+      </c>
+      <c r="G37" s="1">
+        <f>_xlfn.QUARTILE.INC($F$7:$BB$7,K37)</f>
+        <v>3.4810691258059698</v>
+      </c>
+      <c r="H37" s="1">
+        <f>_xlfn.QUARTILE.INC($F$11:$BB$11,K37)</f>
+        <v>3.2285459711618474</v>
+      </c>
+      <c r="I37" s="1">
+        <f>_xlfn.QUARTILE.INC($F$15:$BB$15,K37)</f>
+        <v>3.34090308727008</v>
+      </c>
+      <c r="J37" s="1">
+        <f>_xlfn.QUARTILE.INC($F$19:$BB$19,K37)</f>
+        <v>3.27800828290238</v>
+      </c>
+      <c r="K37" s="3">
+        <v>1</v>
+      </c>
+      <c r="L37" s="1">
+        <f t="shared" ref="L37:L40" si="15">_xlfn.QUARTILE.INC($F$24:$BB$24,K37)</f>
+        <v>2.31152636493194</v>
+      </c>
+      <c r="M37" s="1">
+        <f t="shared" ref="M37:M40" si="16">_xlfn.QUARTILE.INC($F$4:$BB$4,K37)</f>
+        <v>2.6903409090909101</v>
+      </c>
+      <c r="N37" s="1">
+        <f t="shared" ref="N37:N40" si="17">_xlfn.QUARTILE.INC($F$8:$BB$8,K37)</f>
+        <v>3.5077324193169699</v>
+      </c>
+      <c r="O37" s="1">
+        <f t="shared" ref="O37:O40" si="18">_xlfn.QUARTILE.INC($F$12:$BB$12,K37)</f>
+        <v>3.2337769312777076</v>
+      </c>
+      <c r="P37" s="1">
+        <f t="shared" ref="P37:P40" si="19">_xlfn.QUARTILE.INC($F$16:$BB$16,K37)</f>
+        <v>3.36267293683794</v>
+      </c>
+      <c r="Q37" s="1">
+        <f t="shared" ref="Q37:Q40" si="20">_xlfn.QUARTILE.INC($F$20:$BB$20,K37)</f>
+        <v>3.2886653217430499</v>
+      </c>
+    </row>
+    <row r="38" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="1">
+        <f>_xlfn.QUARTILE.INC($F$23:$BB$23,K38)</f>
+        <v>2.60887949260042</v>
+      </c>
+      <c r="F38" s="1">
+        <f>_xlfn.QUARTILE.INC($F$3:$BB$3,K38)</f>
+        <v>3.1363863863863899</v>
+      </c>
+      <c r="G38" s="1">
+        <f>_xlfn.QUARTILE.INC($F$7:$BB$7,K38)</f>
+        <v>3.7233748671882498</v>
+      </c>
+      <c r="H38" s="1">
+        <f>_xlfn.QUARTILE.INC($F$11:$BB$11,K38)</f>
+        <v>3.6181063726746148</v>
+      </c>
+      <c r="I38" s="1">
+        <f>_xlfn.QUARTILE.INC($F$15:$BB$15,K38)</f>
+        <v>3.7063725490196102</v>
+      </c>
+      <c r="J38" s="1">
+        <f>_xlfn.QUARTILE.INC($F$19:$BB$19,K38)</f>
+        <v>3.5507442201459498</v>
+      </c>
+      <c r="K38" s="3">
+        <v>2</v>
+      </c>
+      <c r="L38" s="1">
+        <f t="shared" si="15"/>
+        <v>2.6037679425837301</v>
+      </c>
+      <c r="M38" s="1">
+        <f t="shared" si="16"/>
+        <v>3.1273743368440101</v>
+      </c>
+      <c r="N38" s="1">
+        <f t="shared" si="17"/>
+        <v>3.7523056461633999</v>
+      </c>
+      <c r="O38" s="1">
+        <f t="shared" si="18"/>
+        <v>3.6191463647126403</v>
+      </c>
+      <c r="P38" s="1">
+        <f t="shared" si="19"/>
+        <v>3.7130022186380902</v>
+      </c>
+      <c r="Q38" s="1">
+        <f t="shared" si="20"/>
+        <v>3.5790604805822199</v>
+      </c>
+    </row>
+    <row r="39" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="1">
+        <f>_xlfn.QUARTILE.INC($F$23:$BB$23,K39)</f>
+        <v>2.8072463768115901</v>
+      </c>
+      <c r="F39" s="1">
+        <f>_xlfn.QUARTILE.INC($F$3:$BB$3,K39)</f>
+        <v>3.4820788530466</v>
+      </c>
+      <c r="G39" s="1">
+        <f>_xlfn.QUARTILE.INC($F$7:$BB$7,K39)</f>
+        <v>3.92596719847359</v>
+      </c>
+      <c r="H39" s="1">
+        <f>_xlfn.QUARTILE.INC($F$11:$BB$11,K39)</f>
+        <v>3.9782593279965801</v>
+      </c>
+      <c r="I39" s="1">
+        <f>_xlfn.QUARTILE.INC($F$15:$BB$15,K39)</f>
+        <v>3.85829764598147</v>
+      </c>
+      <c r="J39" s="1">
+        <f>_xlfn.QUARTILE.INC($F$19:$BB$19,K39)</f>
+        <v>3.8194463444292399</v>
+      </c>
+      <c r="K39" s="3">
+        <v>3</v>
+      </c>
+      <c r="L39" s="1">
+        <f t="shared" si="15"/>
+        <v>2.8091974731829699</v>
+      </c>
+      <c r="M39" s="1">
+        <f t="shared" si="16"/>
+        <v>3.4709677419354801</v>
+      </c>
+      <c r="N39" s="1">
+        <f t="shared" si="17"/>
+        <v>3.9533839865593401</v>
+      </c>
+      <c r="O39" s="1">
+        <f t="shared" si="18"/>
+        <v>4.0007416747193547</v>
+      </c>
+      <c r="P39" s="1">
+        <f t="shared" si="19"/>
+        <v>3.8833263714842698</v>
+      </c>
+      <c r="Q39" s="1">
+        <f t="shared" si="20"/>
+        <v>3.8341270415910098</v>
+      </c>
+    </row>
+    <row r="40" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="1">
+        <f>_xlfn.QUARTILE.INC($F$23:$BB$23,K40)</f>
+        <v>3.2097517653996102</v>
+      </c>
+      <c r="F40" s="1">
+        <f>_xlfn.QUARTILE.INC($F$3:$BB$3,K40)</f>
+        <v>4.4275519421860903</v>
+      </c>
+      <c r="G40" s="1">
+        <f>_xlfn.QUARTILE.INC($F$7:$BB$7,K40)</f>
+        <v>4.5816666666666697</v>
+      </c>
+      <c r="H40" s="1">
+        <f>_xlfn.QUARTILE.INC($F$11:$BB$11,K40)</f>
+        <v>4.5139731330514703</v>
+      </c>
+      <c r="I40" s="1">
+        <f>_xlfn.QUARTILE.INC($F$15:$BB$15,K40)</f>
+        <v>4.4273705096073499</v>
+      </c>
+      <c r="J40" s="1">
+        <f>_xlfn.QUARTILE.INC($F$19:$BB$19,K40)</f>
+        <v>4.37490842490842</v>
+      </c>
+      <c r="K40" s="3">
+        <v>4</v>
+      </c>
+      <c r="L40" s="1">
+        <f t="shared" si="15"/>
+        <v>3.2111286503551701</v>
+      </c>
+      <c r="M40" s="1">
+        <f t="shared" si="16"/>
+        <v>4.4417755704735704</v>
+      </c>
+      <c r="N40" s="1">
+        <f t="shared" si="17"/>
+        <v>4.5766543546343401</v>
+      </c>
+      <c r="O40" s="1">
+        <f t="shared" si="18"/>
+        <v>4.5256700005111004</v>
+      </c>
+      <c r="P40" s="1">
+        <f t="shared" si="19"/>
+        <v>4.4702534778472103</v>
+      </c>
+      <c r="Q40" s="1">
+        <f t="shared" si="20"/>
+        <v>4.3717574752451096</v>
+      </c>
+    </row>
+    <row r="43" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="E43" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P43" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q43" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="1">
+        <f>E36</f>
+        <v>1.5832857889982399</v>
+      </c>
+      <c r="F44" s="1">
+        <f>F36</f>
+        <v>2.3018575851393202</v>
+      </c>
+      <c r="G44" s="1">
+        <f t="shared" ref="G44:K44" si="21">G36</f>
+        <v>2.6516057585824999</v>
+      </c>
+      <c r="H44" s="1">
+        <f t="shared" si="21"/>
+        <v>2.48304136804368</v>
+      </c>
+      <c r="I44" s="1">
+        <f t="shared" si="21"/>
         <v>2.03686868686869</v>
       </c>
-      <c r="O32" s="1">
-        <f>_xlfn.QUARTILE.INC($F$19:$BB$19,K32)</f>
+      <c r="J44" s="1">
+        <f t="shared" si="21"/>
         <v>2.6893405586451</v>
       </c>
-      <c r="P32" s="1">
-        <f>_xlfn.QUARTILE.INC($F$20:$BB$20,K32)</f>
+      <c r="L44" s="1">
+        <f t="shared" ref="L44" si="22">L36</f>
+        <v>1.5505890297389799</v>
+      </c>
+      <c r="M44" s="1">
+        <f>M36</f>
+        <v>2.2487604343187102</v>
+      </c>
+      <c r="N44" s="1">
+        <f t="shared" ref="N44:R48" si="23">N36</f>
+        <v>2.6087598675833998</v>
+      </c>
+      <c r="O44" s="1">
+        <f t="shared" si="23"/>
+        <v>2.46987016869471</v>
+      </c>
+      <c r="P44" s="1">
+        <f t="shared" si="23"/>
+        <v>2.0378198772935598</v>
+      </c>
+      <c r="Q44" s="1">
+        <f>Q36</f>
         <v>2.6652506223934802</v>
       </c>
     </row>
-    <row r="33" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E33" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" s="1">
-        <f t="shared" ref="F33:F36" si="13">_xlfn.QUARTILE.INC($F$3:$BB$3,K33)</f>
-        <v>2.6682347670250901</v>
-      </c>
-      <c r="G33" s="1">
-        <f t="shared" ref="G33:G36" si="14">_xlfn.QUARTILE.INC($F$7:$BB$7,K33)</f>
-        <v>3.4810691258059698</v>
-      </c>
-      <c r="H33" s="1">
-        <f t="shared" ref="H33:H36" si="15">_xlfn.QUARTILE.INC($F$11:$BB$11,K33)</f>
-        <v>3.2285459711618474</v>
-      </c>
-      <c r="I33" s="1">
-        <f t="shared" ref="I33:I36" si="16">_xlfn.QUARTILE.INC($F$15:$BB$15,K33)</f>
-        <v>3.34090308727008</v>
-      </c>
-      <c r="J33" s="1">
-        <f t="shared" ref="J33:J36" si="17">_xlfn.QUARTILE.INC($F$19:$BB$19,K33)</f>
-        <v>3.27800828290238</v>
-      </c>
-      <c r="K33" s="3">
-        <v>1</v>
-      </c>
-      <c r="L33" s="1">
-        <f t="shared" ref="L33:L36" si="18">_xlfn.QUARTILE.INC($F$4:$BB$4,K33)</f>
-        <v>2.6903409090909101</v>
-      </c>
-      <c r="M33" s="1">
-        <f t="shared" ref="M33:M36" si="19">_xlfn.QUARTILE.INC($F$8:$BB$8,K33)</f>
-        <v>3.5077324193169699</v>
-      </c>
-      <c r="N33" s="1">
-        <f t="shared" ref="N33:N36" si="20">_xlfn.QUARTILE.INC($F$15:$BB$15,K33)</f>
-        <v>3.34090308727008</v>
-      </c>
-      <c r="O33" s="1">
-        <f t="shared" ref="O33:O36" si="21">_xlfn.QUARTILE.INC($F$19:$BB$19,K33)</f>
-        <v>3.27800828290238</v>
-      </c>
-      <c r="P33" s="1">
-        <f t="shared" ref="P33:P35" si="22">_xlfn.QUARTILE.INC($F$20:$BB$20,K33)</f>
-        <v>3.2886653217430499</v>
-      </c>
-    </row>
-    <row r="34" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E34" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F34" s="1">
-        <f t="shared" si="13"/>
-        <v>3.1363863863863899</v>
-      </c>
-      <c r="G34" s="1">
-        <f t="shared" si="14"/>
-        <v>3.7233748671882498</v>
-      </c>
-      <c r="H34" s="1">
-        <f t="shared" si="15"/>
-        <v>3.6181063726746148</v>
-      </c>
-      <c r="I34" s="1">
-        <f t="shared" si="16"/>
-        <v>3.7063725490196102</v>
-      </c>
-      <c r="J34" s="1">
-        <f t="shared" si="17"/>
-        <v>3.5507442201459498</v>
-      </c>
-      <c r="K34" s="3">
-        <v>2</v>
-      </c>
-      <c r="L34" s="1">
-        <f t="shared" si="18"/>
-        <v>3.1273743368440101</v>
-      </c>
-      <c r="M34" s="1">
-        <f t="shared" si="19"/>
-        <v>3.7523056461633999</v>
-      </c>
-      <c r="N34" s="1">
-        <f t="shared" si="20"/>
-        <v>3.7063725490196102</v>
-      </c>
-      <c r="O34" s="1">
-        <f t="shared" si="21"/>
-        <v>3.5507442201459498</v>
-      </c>
-      <c r="P34" s="1">
-        <f t="shared" si="22"/>
-        <v>3.5790604805822199</v>
-      </c>
-    </row>
-    <row r="35" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E35" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" s="1">
-        <f t="shared" si="13"/>
-        <v>3.4820788530466</v>
-      </c>
-      <c r="G35" s="1">
-        <f t="shared" si="14"/>
-        <v>3.92596719847359</v>
-      </c>
-      <c r="H35" s="1">
-        <f t="shared" si="15"/>
-        <v>3.9782593279965801</v>
-      </c>
-      <c r="I35" s="1">
-        <f t="shared" si="16"/>
-        <v>3.85829764598147</v>
-      </c>
-      <c r="J35" s="1">
-        <f t="shared" si="17"/>
-        <v>3.8194463444292399</v>
-      </c>
-      <c r="K35" s="3">
-        <v>3</v>
-      </c>
-      <c r="L35" s="1">
-        <f t="shared" si="18"/>
-        <v>3.4709677419354801</v>
-      </c>
-      <c r="M35" s="1">
-        <f t="shared" si="19"/>
-        <v>3.9533839865593401</v>
-      </c>
-      <c r="N35" s="1">
-        <f t="shared" si="20"/>
-        <v>3.85829764598147</v>
-      </c>
-      <c r="O35" s="1">
-        <f t="shared" si="21"/>
-        <v>3.8194463444292399</v>
-      </c>
-      <c r="P35" s="1">
-        <f t="shared" si="22"/>
-        <v>3.8341270415910098</v>
-      </c>
-    </row>
-    <row r="36" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E36" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" s="1">
-        <f t="shared" si="13"/>
-        <v>4.4275519421860903</v>
-      </c>
-      <c r="G36" s="1">
-        <f t="shared" si="14"/>
-        <v>4.5816666666666697</v>
-      </c>
-      <c r="H36" s="1">
-        <f t="shared" si="15"/>
-        <v>4.5139731330514703</v>
-      </c>
-      <c r="I36" s="1">
-        <f t="shared" si="16"/>
-        <v>4.4273705096073499</v>
-      </c>
-      <c r="J36" s="1">
-        <f t="shared" si="17"/>
-        <v>4.37490842490842</v>
-      </c>
-      <c r="K36" s="3">
-        <v>4</v>
-      </c>
-      <c r="L36" s="1">
-        <f t="shared" si="18"/>
-        <v>4.4417755704735704</v>
-      </c>
-      <c r="M36" s="1">
-        <f t="shared" si="19"/>
-        <v>4.5766543546343401</v>
-      </c>
-      <c r="N36" s="1">
-        <f t="shared" si="20"/>
-        <v>4.4273705096073499</v>
-      </c>
-      <c r="O36" s="1">
-        <f t="shared" si="21"/>
-        <v>4.37490842490842</v>
-      </c>
-      <c r="P36" s="1">
-        <f>_xlfn.QUARTILE.INC($F$20:$BB$20,K36)</f>
-        <v>4.3717574752451096</v>
-      </c>
-    </row>
-    <row r="39" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F39" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M39" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N39" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O39" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P39" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="40" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F40" s="1">
-        <f>F32</f>
-        <v>2.3018575851393202</v>
-      </c>
-      <c r="G40" s="1">
-        <f t="shared" ref="G40:J40" si="23">G32</f>
-        <v>2.6516057585824999</v>
-      </c>
-      <c r="H40" s="1">
-        <f t="shared" si="23"/>
-        <v>2.48304136804368</v>
-      </c>
-      <c r="I40" s="1">
-        <f t="shared" si="23"/>
-        <v>2.03686868686869</v>
-      </c>
-      <c r="J40" s="1">
-        <f t="shared" si="23"/>
-        <v>2.6893405586451</v>
-      </c>
-      <c r="L40" s="1">
-        <f>L32</f>
-        <v>2.2487604343187102</v>
-      </c>
-      <c r="M40" s="1">
-        <f t="shared" ref="M40:P40" si="24">M32</f>
-        <v>2.6087598675833998</v>
-      </c>
-      <c r="N40" s="1">
+    <row r="45" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="1">
+        <f>E37-E36</f>
+        <v>0.71704139240311027</v>
+      </c>
+      <c r="F45" s="1">
+        <f>F37-F36</f>
+        <v>0.36637718188576995</v>
+      </c>
+      <c r="G45" s="1">
+        <f t="shared" ref="G45:J45" si="24">G37-G36</f>
+        <v>0.82946336722346992</v>
+      </c>
+      <c r="H45" s="1">
         <f t="shared" si="24"/>
-        <v>2.03686868686869</v>
-      </c>
-      <c r="O40" s="1">
+        <v>0.74550460311816735</v>
+      </c>
+      <c r="I45" s="1">
         <f t="shared" si="24"/>
-        <v>2.6893405586451</v>
-      </c>
-      <c r="P40" s="1">
+        <v>1.30403440040139</v>
+      </c>
+      <c r="J45" s="1">
         <f t="shared" si="24"/>
-        <v>2.6652506223934802</v>
-      </c>
-    </row>
-    <row r="41" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E41" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41" s="1">
-        <f>F33-F32</f>
-        <v>0.36637718188576995</v>
-      </c>
-      <c r="G41" s="1">
-        <f t="shared" ref="G41:J41" si="25">G33-G32</f>
-        <v>0.82946336722346992</v>
-      </c>
-      <c r="H41" s="1">
-        <f t="shared" si="25"/>
-        <v>0.74550460311816735</v>
-      </c>
-      <c r="I41" s="1">
-        <f t="shared" si="25"/>
-        <v>1.30403440040139</v>
-      </c>
-      <c r="J41" s="1">
-        <f t="shared" si="25"/>
         <v>0.58866772425727998</v>
       </c>
-      <c r="L41" s="1">
-        <f>L33-L32</f>
+      <c r="L45" s="1">
+        <f t="shared" ref="L45" si="25">L37-L36</f>
+        <v>0.76093733519296003</v>
+      </c>
+      <c r="M45" s="1">
+        <f>M37-M36</f>
         <v>0.44158047477219986</v>
       </c>
-      <c r="M41" s="1">
-        <f t="shared" ref="M41:P41" si="26">M33-M32</f>
+      <c r="N45" s="1">
+        <f t="shared" ref="N45:Q45" si="26">N37-N36</f>
         <v>0.89897255173357005</v>
       </c>
-      <c r="N41" s="1">
+      <c r="O45" s="1">
         <f t="shared" si="26"/>
-        <v>1.30403440040139</v>
-      </c>
-      <c r="O41" s="1">
+        <v>0.76390676258299761</v>
+      </c>
+      <c r="P45" s="1">
         <f t="shared" si="26"/>
-        <v>0.58866772425727998</v>
-      </c>
-      <c r="P41" s="1">
+        <v>1.3248530595443802</v>
+      </c>
+      <c r="Q45" s="1">
         <f t="shared" si="26"/>
         <v>0.62341469934956972</v>
       </c>
     </row>
-    <row r="42" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E42" s="1" t="s">
+    <row r="46" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D46" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F42" s="1">
-        <f t="shared" ref="F42:J44" si="27">F34-F33</f>
+      <c r="E46" s="1">
+        <f>E38-E37</f>
+        <v>0.30855231119906978</v>
+      </c>
+      <c r="F46" s="1">
+        <f t="shared" ref="F46:J48" si="27">F38-F37</f>
         <v>0.46815161936129979</v>
       </c>
-      <c r="G42" s="1">
+      <c r="G46" s="1">
         <f t="shared" si="27"/>
         <v>0.24230574138228</v>
       </c>
-      <c r="H42" s="1">
+      <c r="H46" s="1">
         <f t="shared" si="27"/>
         <v>0.38956040151276738</v>
       </c>
-      <c r="I42" s="1">
+      <c r="I46" s="1">
         <f t="shared" si="27"/>
         <v>0.36546946174953021</v>
       </c>
-      <c r="J42" s="1">
+      <c r="J46" s="1">
         <f t="shared" si="27"/>
         <v>0.27273593724356981</v>
       </c>
-      <c r="L42" s="1">
-        <f t="shared" ref="L42:P42" si="28">L34-L33</f>
+      <c r="L46" s="1">
+        <f t="shared" ref="L46" si="28">L38-L37</f>
+        <v>0.29224157765179015</v>
+      </c>
+      <c r="M46" s="1">
+        <f t="shared" ref="M46:Q46" si="29">M38-M37</f>
         <v>0.43703342775310006</v>
       </c>
-      <c r="M42" s="1">
-        <f t="shared" si="28"/>
+      <c r="N46" s="1">
+        <f t="shared" si="29"/>
         <v>0.24457322684643001</v>
       </c>
-      <c r="N42" s="1">
-        <f t="shared" si="28"/>
-        <v>0.36546946174953021</v>
-      </c>
-      <c r="O42" s="1">
-        <f t="shared" si="28"/>
-        <v>0.27273593724356981</v>
-      </c>
-      <c r="P42" s="1">
-        <f t="shared" si="28"/>
+      <c r="O46" s="1">
+        <f t="shared" si="29"/>
+        <v>0.38536943343493268</v>
+      </c>
+      <c r="P46" s="1">
+        <f t="shared" si="29"/>
+        <v>0.35032928180015022</v>
+      </c>
+      <c r="Q46" s="1">
+        <f t="shared" si="29"/>
         <v>0.29039515883917</v>
       </c>
     </row>
-    <row r="43" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E43" s="1" t="s">
+    <row r="47" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D47" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="1">
+      <c r="E47" s="1">
+        <f>E39-E38</f>
+        <v>0.1983668842111701</v>
+      </c>
+      <c r="F47" s="1">
         <f t="shared" si="27"/>
         <v>0.34569246666021014</v>
       </c>
-      <c r="G43" s="1">
+      <c r="G47" s="1">
         <f t="shared" si="27"/>
         <v>0.20259233128534015</v>
       </c>
-      <c r="H43" s="1">
+      <c r="H47" s="1">
         <f t="shared" si="27"/>
         <v>0.36015295532196534</v>
       </c>
-      <c r="I43" s="1">
+      <c r="I47" s="1">
         <f t="shared" si="27"/>
         <v>0.15192509696185974</v>
       </c>
-      <c r="J43" s="1">
+      <c r="J47" s="1">
         <f t="shared" si="27"/>
         <v>0.2687021242832901</v>
       </c>
-      <c r="L43" s="1">
-        <f t="shared" ref="L43:P43" si="29">L35-L34</f>
+      <c r="L47" s="1">
+        <f>L39-L38</f>
+        <v>0.20542953059923974</v>
+      </c>
+      <c r="M47" s="1">
+        <f t="shared" ref="M47:Q47" si="30">M39-M38</f>
         <v>0.34359340509146996</v>
       </c>
-      <c r="M43" s="1">
-        <f t="shared" si="29"/>
+      <c r="N47" s="1">
+        <f t="shared" si="30"/>
         <v>0.20107834039594019</v>
       </c>
-      <c r="N43" s="1">
-        <f t="shared" si="29"/>
-        <v>0.15192509696185974</v>
-      </c>
-      <c r="O43" s="1">
-        <f t="shared" si="29"/>
-        <v>0.2687021242832901</v>
-      </c>
-      <c r="P43" s="1">
-        <f t="shared" si="29"/>
+      <c r="O47" s="1">
+        <f t="shared" si="30"/>
+        <v>0.38159531000671443</v>
+      </c>
+      <c r="P47" s="1">
+        <f t="shared" si="30"/>
+        <v>0.17032415284617963</v>
+      </c>
+      <c r="Q47" s="1">
+        <f t="shared" si="30"/>
         <v>0.25506656100878988</v>
       </c>
     </row>
-    <row r="44" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E44" s="1" t="s">
+    <row r="48" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D48" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F44" s="1">
+      <c r="E48" s="1">
+        <f>E40-E39</f>
+        <v>0.4025053885880201</v>
+      </c>
+      <c r="F48" s="1">
         <f t="shared" si="27"/>
         <v>0.94547308913949024</v>
       </c>
-      <c r="G44" s="1">
+      <c r="G48" s="1">
         <f t="shared" si="27"/>
         <v>0.65569946819307967</v>
       </c>
-      <c r="H44" s="1">
+      <c r="H48" s="1">
         <f t="shared" si="27"/>
         <v>0.53571380505489019</v>
       </c>
-      <c r="I44" s="1">
+      <c r="I48" s="1">
         <f t="shared" si="27"/>
         <v>0.56907286362587994</v>
       </c>
-      <c r="J44" s="1">
-        <f>J36-J35</f>
+      <c r="J48" s="1">
+        <f>J40-J39</f>
         <v>0.55546208047918011</v>
       </c>
-      <c r="L44" s="1">
-        <f t="shared" ref="L44:O44" si="30">L36-L35</f>
+      <c r="L48" s="1">
+        <f>L40-L39</f>
+        <v>0.40193117717220028</v>
+      </c>
+      <c r="M48" s="1">
+        <f t="shared" ref="M48:P48" si="31">M40-M39</f>
         <v>0.97080782853809033</v>
       </c>
-      <c r="M44" s="1">
-        <f t="shared" si="30"/>
+      <c r="N48" s="1">
+        <f t="shared" si="31"/>
         <v>0.62327036807500003</v>
       </c>
-      <c r="N44" s="1">
-        <f t="shared" si="30"/>
-        <v>0.56907286362587994</v>
-      </c>
-      <c r="O44" s="1">
-        <f t="shared" si="30"/>
-        <v>0.55546208047918011</v>
-      </c>
-      <c r="P44" s="1">
-        <f>P36-P35</f>
+      <c r="O48" s="1">
+        <f t="shared" si="31"/>
+        <v>0.52492832579174564</v>
+      </c>
+      <c r="P48" s="1">
+        <f t="shared" si="31"/>
+        <v>0.58692710636294043</v>
+      </c>
+      <c r="Q48" s="1">
+        <f>Q40-Q39</f>
         <v>0.53763043365409979</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="F30:J30"/>
-    <mergeCell ref="L30:P30"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="L34:Q34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23762BC7-8DEB-4B59-8C47-55F9E118F12F}">
+  <dimension ref="A1:AX59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="T17" sqref="T17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1">
+        <v>3.836999716162238</v>
+      </c>
+      <c r="C1">
+        <v>3.038033759192158</v>
+      </c>
+      <c r="D1">
+        <v>3.3521987800962885</v>
+      </c>
+      <c r="E1">
+        <v>4.0691077830017734</v>
+      </c>
+      <c r="F1">
+        <v>3.2496372868206236</v>
+      </c>
+      <c r="G1">
+        <v>3.3750587095281284</v>
+      </c>
+      <c r="H1">
+        <v>3.7181574789899559</v>
+      </c>
+      <c r="I1">
+        <v>3.4057184070565585</v>
+      </c>
+      <c r="J1">
+        <v>3.4929636675757259</v>
+      </c>
+      <c r="K1">
+        <v>3.632870032381438</v>
+      </c>
+      <c r="L1">
+        <v>3.7367074454290723</v>
+      </c>
+      <c r="M1">
+        <v>3.7311746199111924</v>
+      </c>
+      <c r="N1">
+        <v>3.5994522848226942</v>
+      </c>
+      <c r="O1">
+        <v>3.7346341589312813</v>
+      </c>
+      <c r="P1">
+        <v>3.4440059092161044</v>
+      </c>
+      <c r="Q1">
+        <v>3.5078706668838224</v>
+      </c>
+      <c r="R1">
+        <v>3.5572710376820185</v>
+      </c>
+      <c r="S1">
+        <v>2.9641707164657518</v>
+      </c>
+      <c r="T1">
+        <v>3.4998115670316219</v>
+      </c>
+      <c r="U1">
+        <v>3.4246706016048982</v>
+      </c>
+      <c r="V1">
+        <v>3.7932879810725879</v>
+      </c>
+      <c r="W1">
+        <v>3.4545264908667561</v>
+      </c>
+      <c r="X1">
+        <v>3.3929043283781581</v>
+      </c>
+      <c r="Y1">
+        <v>3.633197076748452</v>
+      </c>
+      <c r="Z1">
+        <v>3.2361487283365475</v>
+      </c>
+      <c r="AA1">
+        <v>3.5793532672236261</v>
+      </c>
+      <c r="AB1">
+        <v>3.0197115047644338</v>
+      </c>
+      <c r="AC1">
+        <v>3.3282033968414857</v>
+      </c>
+      <c r="AD1">
+        <v>3.3981689145435099</v>
+      </c>
+      <c r="AE1">
+        <v>3.1749925186225503</v>
+      </c>
+      <c r="AF1">
+        <v>3.1174880449047548</v>
+      </c>
+      <c r="AG1">
+        <v>3.5407745933090973</v>
+      </c>
+      <c r="AH1">
+        <v>3.2802407985320015</v>
+      </c>
+      <c r="AI1">
+        <v>3.8696590267556261</v>
+      </c>
+      <c r="AJ1">
+        <v>3.5865452581784902</v>
+      </c>
+      <c r="AK1">
+        <v>3.3780837569171118</v>
+      </c>
+      <c r="AL1">
+        <v>3.4189167229019737</v>
+      </c>
+      <c r="AM1">
+        <v>3.0578282212503636</v>
+      </c>
+      <c r="AN1">
+        <v>3.9074090650626743</v>
+      </c>
+      <c r="AO1">
+        <v>3.5087261136515613</v>
+      </c>
+      <c r="AP1">
+        <v>3.5682406357438099</v>
+      </c>
+      <c r="AQ1">
+        <v>3.595180620700436</v>
+      </c>
+      <c r="AR1">
+        <v>3.8120320302912076</v>
+      </c>
+      <c r="AS1">
+        <v>3.21842695585755</v>
+      </c>
+      <c r="AT1">
+        <v>3.8390810554496979</v>
+      </c>
+      <c r="AU1">
+        <v>3.5976904733482917</v>
+      </c>
+      <c r="AV1">
+        <v>3.9701483631683758</v>
+      </c>
+      <c r="AW1">
+        <v>3.5098776477790414</v>
+      </c>
+      <c r="AX1">
+        <v>3.6133409698896015</v>
+      </c>
+    </row>
+    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2">
+        <v>3.6209684633051502</v>
+      </c>
+      <c r="C2">
+        <v>3.2261000764481498</v>
+      </c>
+      <c r="D2">
+        <v>3.3597115360234699</v>
+      </c>
+      <c r="E2">
+        <v>3.8833263714842698</v>
+      </c>
+      <c r="F2">
+        <v>3.36860559448077</v>
+      </c>
+      <c r="G2">
+        <v>3.0267985572259102</v>
+      </c>
+      <c r="H2">
+        <v>4.4702534778472103</v>
+      </c>
+      <c r="I2">
+        <v>3.16646219881132</v>
+      </c>
+      <c r="J2">
+        <v>3.5174888999146301</v>
+      </c>
+      <c r="K2">
+        <v>3.9084019898991702</v>
+      </c>
+      <c r="L2">
+        <v>3.9341810966811002</v>
+      </c>
+      <c r="M2">
+        <v>3.9269408369408398</v>
+      </c>
+      <c r="N2">
+        <v>4.0136354246122599</v>
+      </c>
+      <c r="O2">
+        <v>4.1055562858194401</v>
+      </c>
+      <c r="P2">
+        <v>3.9739781385936102</v>
+      </c>
+      <c r="Q2">
+        <v>3.7235026399551301</v>
+      </c>
+      <c r="R2">
+        <v>3.3130914497346602</v>
+      </c>
+      <c r="S2">
+        <v>2.90516058532303</v>
+      </c>
+      <c r="T2">
+        <v>3.7819303388413399</v>
+      </c>
+      <c r="U2">
+        <v>3.7130022186380902</v>
+      </c>
+      <c r="V2">
+        <v>3.9928706775637899</v>
+      </c>
+      <c r="W2">
+        <v>3.5880456424790999</v>
+      </c>
+      <c r="X2">
+        <v>3.36267293683794</v>
+      </c>
+      <c r="Y2">
+        <v>2.5244370966096898</v>
+      </c>
+      <c r="Z2">
+        <v>3.44327601215097</v>
+      </c>
+      <c r="AA2">
+        <v>4.14422889784161</v>
+      </c>
+      <c r="AB2">
+        <v>2.0378198772935598</v>
+      </c>
+      <c r="AC2">
+        <v>3.8290935211465</v>
+      </c>
+      <c r="AD2">
+        <v>3.8337609918530999</v>
+      </c>
+      <c r="AE2">
+        <v>3.7960199511972998</v>
+      </c>
+      <c r="AF2">
+        <v>3.4563239441696201</v>
+      </c>
+      <c r="AG2">
+        <v>3.7992109308085902</v>
+      </c>
+      <c r="AH2">
+        <v>4.0998172514619897</v>
+      </c>
+      <c r="AI2">
+        <v>3.7460125755961999</v>
+      </c>
+      <c r="AJ2">
+        <v>3.7971174528474299</v>
+      </c>
+      <c r="AK2">
+        <v>3.3921672869041299</v>
+      </c>
+      <c r="AL2">
+        <v>3.4254868832206999</v>
+      </c>
+      <c r="AM2">
+        <v>3.2391596345084701</v>
+      </c>
+      <c r="AN2">
+        <v>3.72368764526975</v>
+      </c>
+      <c r="AO2">
+        <v>3.8401452620202599</v>
+      </c>
+      <c r="AP2">
+        <v>3.34856994856995</v>
+      </c>
+      <c r="AQ2">
+        <v>3.5254560468550502</v>
+      </c>
+      <c r="AR2">
+        <v>3.5109544055318098</v>
+      </c>
+      <c r="AS2">
+        <v>2.2284475737637299</v>
+      </c>
+      <c r="AT2">
+        <v>3.95716188177702</v>
+      </c>
+      <c r="AU2">
+        <v>4.1116455063478501</v>
+      </c>
+      <c r="AV2">
+        <v>3.68522843643811</v>
+      </c>
+      <c r="AW2">
+        <v>2.7364546809256698</v>
+      </c>
+      <c r="AX2">
+        <v>3.8345972215832398</v>
+      </c>
+    </row>
+    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3">
+        <v>3.3240369579716802</v>
+      </c>
+      <c r="C3">
+        <v>2.8483057525610702</v>
+      </c>
+      <c r="D3">
+        <v>3.1507977685358202</v>
+      </c>
+      <c r="E3">
+        <v>4.0592999553347298</v>
+      </c>
+      <c r="F3">
+        <v>3.0976001511715801</v>
+      </c>
+      <c r="G3">
+        <v>3.4219334803338701</v>
+      </c>
+      <c r="H3">
+        <v>2.5897424953763002</v>
+      </c>
+      <c r="I3">
+        <v>4.0429213143376099</v>
+      </c>
+      <c r="J3">
+        <v>3.3073827707974099</v>
+      </c>
+      <c r="K3">
+        <v>2.47951983604157</v>
+      </c>
+      <c r="L3">
+        <v>2.71455109712387</v>
+      </c>
+      <c r="M3">
+        <v>3.4709677419354801</v>
+      </c>
+      <c r="N3">
+        <v>2.7303923761800402</v>
+      </c>
+      <c r="O3">
+        <v>3.6927556818181801</v>
+      </c>
+      <c r="P3">
+        <v>2.2487604343187102</v>
+      </c>
+      <c r="Q3">
+        <v>2.9526449938949901</v>
+      </c>
+      <c r="R3">
+        <v>3.4590070227012899</v>
+      </c>
+      <c r="S3">
+        <v>2.4569015513991599</v>
+      </c>
+      <c r="T3">
+        <v>2.3202179697881902</v>
+      </c>
+      <c r="U3">
+        <v>2.88382683094127</v>
+      </c>
+      <c r="V3">
+        <v>4.3195020460075204</v>
+      </c>
+      <c r="W3">
+        <v>3.7768353728755102</v>
+      </c>
+      <c r="X3">
+        <v>3.0797128259337598</v>
+      </c>
+      <c r="Y3">
+        <v>3.65465619651666</v>
+      </c>
+      <c r="Z3">
+        <v>2.4772186665009599</v>
+      </c>
+      <c r="AA3">
+        <v>3.6109685968984602</v>
+      </c>
+      <c r="AB3">
+        <v>2.6903409090909101</v>
+      </c>
+      <c r="AC3">
+        <v>2.8377651480503898</v>
+      </c>
+      <c r="AD3">
+        <v>2.9742647058823501</v>
+      </c>
+      <c r="AE3">
+        <v>2.29163821442092</v>
+      </c>
+      <c r="AF3">
+        <v>2.5767513520772298</v>
+      </c>
+      <c r="AG3">
+        <v>2.95913386130777</v>
+      </c>
+      <c r="AH3">
+        <v>2.5693473193473202</v>
+      </c>
+      <c r="AI3">
+        <v>4.2983952751754604</v>
+      </c>
+      <c r="AJ3">
+        <v>3.1678268092061201</v>
+      </c>
+      <c r="AK3">
+        <v>2.7883166731281301</v>
+      </c>
+      <c r="AL3">
+        <v>3.9085317460317501</v>
+      </c>
+      <c r="AM3">
+        <v>2.3622864574226301</v>
+      </c>
+      <c r="AN3">
+        <v>3.5660669046458202</v>
+      </c>
+      <c r="AO3">
+        <v>2.3114829059829098</v>
+      </c>
+      <c r="AP3">
+        <v>3.27906963943459</v>
+      </c>
+      <c r="AQ3">
+        <v>3.1273743368440101</v>
+      </c>
+      <c r="AR3">
+        <v>3.4235855263157902</v>
+      </c>
+      <c r="AS3">
+        <v>3.3665200016033299</v>
+      </c>
+      <c r="AT3">
+        <v>3.2478431372548999</v>
+      </c>
+      <c r="AU3">
+        <v>2.6072404371584699</v>
+      </c>
+      <c r="AV3">
+        <v>4.4417755704735704</v>
+      </c>
+      <c r="AW3">
+        <v>3.83900711342572</v>
+      </c>
+      <c r="AX3">
+        <v>3.15263157894737</v>
+      </c>
+    </row>
+    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4">
+        <v>3.9169435215946802</v>
+      </c>
+      <c r="C4">
+        <v>2.6087598675833998</v>
+      </c>
+      <c r="D4">
+        <v>3.8096327497696501</v>
+      </c>
+      <c r="E4">
+        <v>3.9965182040743001</v>
+      </c>
+      <c r="F4">
+        <v>3.98443019729089</v>
+      </c>
+      <c r="G4">
+        <v>3.8191247099455001</v>
+      </c>
+      <c r="H4">
+        <v>3.6291574850348698</v>
+      </c>
+      <c r="I4">
+        <v>3.9533839865593401</v>
+      </c>
+      <c r="J4">
+        <v>3.81704714169007</v>
+      </c>
+      <c r="K4">
+        <v>3.7559192580469198</v>
+      </c>
+      <c r="L4">
+        <v>4.15323565323565</v>
+      </c>
+      <c r="M4">
+        <v>3.61881940385739</v>
+      </c>
+      <c r="N4">
+        <v>4.1195790237706396</v>
+      </c>
+      <c r="O4">
+        <v>3.5208683829132399</v>
+      </c>
+      <c r="P4">
+        <v>3.7681721568775801</v>
+      </c>
+      <c r="Q4">
+        <v>3.6022727272727302</v>
+      </c>
+      <c r="R4">
+        <v>3.5077324193169699</v>
+      </c>
+      <c r="S4">
+        <v>3.1649749981487298</v>
+      </c>
+      <c r="T4">
+        <v>3.9287242169595098</v>
+      </c>
+      <c r="U4">
+        <v>3.7587343724437399</v>
+      </c>
+      <c r="V4">
+        <v>3.1813291471995799</v>
+      </c>
+      <c r="W4">
+        <v>3.7523056461633999</v>
+      </c>
+      <c r="X4">
+        <v>4.1113830767206201</v>
+      </c>
+      <c r="Y4">
+        <v>3.66505870183616</v>
+      </c>
+      <c r="Z4">
+        <v>3.7428691678691699</v>
+      </c>
+      <c r="AA4">
+        <v>3.74016897913957</v>
+      </c>
+      <c r="AB4">
+        <v>3.5633762006903802</v>
+      </c>
+      <c r="AC4">
+        <v>3.5894187779433699</v>
+      </c>
+      <c r="AD4">
+        <v>3.57376175023234</v>
+      </c>
+      <c r="AE4">
+        <v>3.39384615384615</v>
+      </c>
+      <c r="AF4">
+        <v>3.35240525015243</v>
+      </c>
+      <c r="AG4">
+        <v>3.8783743148916301</v>
+      </c>
+      <c r="AH4">
+        <v>3.2214678092726898</v>
+      </c>
+      <c r="AI4">
+        <v>3.45380489440161</v>
+      </c>
+      <c r="AJ4">
+        <v>3.4262144354597202</v>
+      </c>
+      <c r="AK4">
+        <v>3.3642036456966098</v>
+      </c>
+      <c r="AL4">
+        <v>2.6256579312682802</v>
+      </c>
+      <c r="AM4">
+        <v>3.3601875532821799</v>
+      </c>
+      <c r="AN4">
+        <v>4.12423728813559</v>
+      </c>
+      <c r="AO4">
+        <v>4.1277636729080696</v>
+      </c>
+      <c r="AP4">
+        <v>3.7500331634073198</v>
+      </c>
+      <c r="AQ4">
+        <v>4.23581300813008</v>
+      </c>
+      <c r="AR4">
+        <v>4.1481208045801301</v>
+      </c>
+      <c r="AS4">
+        <v>3.0667094507870001</v>
+      </c>
+      <c r="AT4">
+        <v>4.4972381794078702</v>
+      </c>
+      <c r="AU4">
+        <v>4.5766543546343401</v>
+      </c>
+      <c r="AV4">
+        <v>3.9733261725742901</v>
+      </c>
+      <c r="AW4">
+        <v>3.9424928093802301</v>
+      </c>
+      <c r="AX4">
+        <v>3.9025453359425999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4.3995431339291002</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3.0425754709647301</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3.1047499886608101</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4.0346369088704597</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3.1322998687663999</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3.48849750127324</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3.7842322411647</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2.8454652985903</v>
+      </c>
+      <c r="J5" s="1">
+        <v>3.3959948195020502</v>
+      </c>
+      <c r="K5" s="1">
+        <v>4.1759387725116497</v>
+      </c>
+      <c r="L5" s="1">
+        <v>3.8204635489015799</v>
+      </c>
+      <c r="M5" s="1">
+        <v>3.7575161158216099</v>
+      </c>
+      <c r="N5" s="1">
+        <v>3.9551006578358701</v>
+      </c>
+      <c r="O5" s="1">
+        <v>4.0601591695341703</v>
+      </c>
+      <c r="P5" s="1">
+        <v>3.6230582102300102</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>3.4166214641594301</v>
+      </c>
+      <c r="R5" s="1">
+        <v>3.9212133871736401</v>
+      </c>
+      <c r="S5" s="1">
+        <v>3.4863807245386198</v>
+      </c>
+      <c r="T5" s="1">
+        <v>3.52262981500995</v>
+      </c>
+      <c r="U5" s="1">
+        <v>2.7408246821181401</v>
+      </c>
+      <c r="V5" s="1">
+        <v>4.2415380054043998</v>
+      </c>
+      <c r="W5" s="1">
+        <v>2.46987016869471</v>
+      </c>
+      <c r="X5" s="1">
+        <v>3.03662793056181</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>4.5256700005111004</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>3.2287144734185902</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>2.9225139229942099</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>3.2489643048550598</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>2.4774032569744202</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>3.6152345191952699</v>
+      </c>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1">
+        <v>3.5299788599999999</v>
+      </c>
+      <c r="AI5" s="1">
+        <v>4.0159553470138496</v>
+      </c>
+      <c r="AJ5" s="1">
+        <v>4.3122968522022997</v>
+      </c>
+      <c r="AK5" s="1">
+        <v>3.7666706982744702</v>
+      </c>
+      <c r="AL5" s="1">
+        <v>3.81460284998021</v>
+      </c>
+      <c r="AM5" s="1">
+        <v>2.6656864439324099</v>
+      </c>
+      <c r="AN5" s="1">
+        <v>4.1035543403964496</v>
+      </c>
+      <c r="AO5" s="1">
+        <v>4.1751796814296798</v>
+      </c>
+      <c r="AP5" s="1">
+        <v>3.6925213675213699</v>
+      </c>
+      <c r="AQ5" s="1">
+        <v>3.6408051006964102</v>
+      </c>
+      <c r="AR5" s="1">
+        <v>4.3574144969493798</v>
+      </c>
+      <c r="AS5" s="1">
+        <v>3.6700773634156101</v>
+      </c>
+      <c r="AT5" s="1">
+        <v>4.154338998089</v>
+      </c>
+      <c r="AU5" s="1">
+        <v>2.9069084646696601</v>
+      </c>
+      <c r="AV5" s="1">
+        <v>3.51092065614124</v>
+      </c>
+      <c r="AW5" s="1">
+        <v>3.3197816697445801</v>
+      </c>
+      <c r="AX5" s="1">
+        <v>3.55543203125537</v>
+      </c>
+    </row>
+    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3.9235065040105801</v>
+      </c>
+      <c r="C6">
+        <v>3.4644276284034401</v>
+      </c>
+      <c r="D6">
+        <v>3.3361018574916899</v>
+      </c>
+      <c r="E6">
+        <v>4.3717574752451096</v>
+      </c>
+      <c r="F6">
+        <v>2.6652506223934802</v>
+      </c>
+      <c r="G6">
+        <v>3.1189392988621201</v>
+      </c>
+      <c r="H6">
+        <v>4.1174016955267003</v>
+      </c>
+      <c r="I6">
+        <v>3.0203592369842198</v>
+      </c>
+      <c r="J6">
+        <v>3.4269047059744699</v>
+      </c>
+      <c r="K6">
+        <v>3.8445703054078799</v>
+      </c>
+      <c r="L6">
+        <v>4.06110583120316</v>
+      </c>
+      <c r="M6">
+        <v>3.8816290010006398</v>
+      </c>
+      <c r="N6">
+        <v>3.17855394171466</v>
+      </c>
+      <c r="O6">
+        <v>3.2938312745713798</v>
+      </c>
+      <c r="P6">
+        <v>3.60606060606061</v>
+      </c>
+      <c r="Q6">
+        <v>3.8443115091368298</v>
+      </c>
+      <c r="R6">
+        <v>3.58531090948353</v>
+      </c>
+      <c r="S6">
+        <v>2.8074357229192199</v>
+      </c>
+      <c r="T6">
+        <v>3.94555549455912</v>
+      </c>
+      <c r="U6">
+        <v>4.0269649038832496</v>
+      </c>
+      <c r="V6">
+        <v>3.2312000291876499</v>
+      </c>
+      <c r="W6">
+        <v>3.6855756241210602</v>
+      </c>
+      <c r="X6">
+        <v>3.3741248718366599</v>
+      </c>
+      <c r="Y6">
+        <v>3.7961633882686501</v>
+      </c>
+      <c r="Z6">
+        <v>3.2886653217430499</v>
+      </c>
+      <c r="AA6">
+        <v>3.4788859392442801</v>
+      </c>
+      <c r="AB6">
+        <v>3.5580562318922602</v>
+      </c>
+      <c r="AC6">
+        <v>3.9073362800927498</v>
+      </c>
+      <c r="AD6">
+        <v>2.9938226055544899</v>
+      </c>
+      <c r="AE6">
+        <v>3.21846575502583</v>
+      </c>
+      <c r="AF6">
+        <v>3.0844716332197399</v>
+      </c>
+      <c r="AG6">
+        <v>3.5263792662284001</v>
+      </c>
+      <c r="AH6">
+        <v>2.9805927525780098</v>
+      </c>
+      <c r="AI6">
+        <v>3.8341270415910098</v>
+      </c>
+      <c r="AJ6">
+        <v>3.22927074117688</v>
+      </c>
+      <c r="AK6">
+        <v>3.5790604805822199</v>
+      </c>
+      <c r="AL6">
+        <v>3.3203042040089299</v>
+      </c>
+      <c r="AM6">
+        <v>3.6618210171061301</v>
+      </c>
+      <c r="AN6">
+        <v>4.0194991468657602</v>
+      </c>
+      <c r="AO6">
+        <v>3.0890590459168901</v>
+      </c>
+      <c r="AP6">
+        <v>3.7710090597858201</v>
+      </c>
+      <c r="AQ6">
+        <v>3.4464546109766299</v>
+      </c>
+      <c r="AR6">
+        <v>3.6200849180789301</v>
+      </c>
+      <c r="AS6">
+        <v>3.7603803897180801</v>
+      </c>
+      <c r="AT6">
+        <v>3.3388230807196999</v>
+      </c>
+      <c r="AU6">
+        <v>3.7860036039311402</v>
+      </c>
+      <c r="AV6">
+        <v>4.2394909802146703</v>
+      </c>
+      <c r="AW6">
+        <v>3.7116519654190099</v>
+      </c>
+      <c r="AX6">
+        <v>3.6214986817194301</v>
+      </c>
+    </row>
+    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>2.9641707164657518</v>
+      </c>
+      <c r="C11">
+        <v>2.0378198772935598</v>
+      </c>
+      <c r="D11">
+        <v>2.2487604343187102</v>
+      </c>
+      <c r="E11">
+        <v>2.6087598675833998</v>
+      </c>
+      <c r="F11" s="1">
+        <v>4.3995431339291002</v>
+      </c>
+      <c r="G11" s="1">
+        <v>3.9235065040105801</v>
+      </c>
+    </row>
+    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12">
+        <v>3.0197115047644338</v>
+      </c>
+      <c r="C12">
+        <v>2.2284475737637299</v>
+      </c>
+      <c r="D12">
+        <v>2.29163821442092</v>
+      </c>
+      <c r="E12">
+        <v>2.6256579312682802</v>
+      </c>
+      <c r="F12" s="1">
+        <v>3.0425754709647301</v>
+      </c>
+      <c r="G12">
+        <v>3.4644276284034401</v>
+      </c>
+    </row>
+    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13">
+        <v>3.038033759192158</v>
+      </c>
+      <c r="C13">
+        <v>2.5244370966096898</v>
+      </c>
+      <c r="D13">
+        <v>2.3114829059829098</v>
+      </c>
+      <c r="E13">
+        <v>3.0667094507870001</v>
+      </c>
+      <c r="F13" s="1">
+        <v>3.1047499886608101</v>
+      </c>
+      <c r="G13">
+        <v>3.3361018574916899</v>
+      </c>
+    </row>
+    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14">
+        <v>3.0578282212503636</v>
+      </c>
+      <c r="C14">
+        <v>2.7364546809256698</v>
+      </c>
+      <c r="D14">
+        <v>2.3202179697881902</v>
+      </c>
+      <c r="E14">
+        <v>3.1649749981487298</v>
+      </c>
+      <c r="F14" s="1">
+        <v>4.0346369088704597</v>
+      </c>
+      <c r="G14">
+        <v>4.3717574752451096</v>
+      </c>
+    </row>
+    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15">
+        <v>3.1174880449047548</v>
+      </c>
+      <c r="C15">
+        <v>2.90516058532303</v>
+      </c>
+      <c r="D15">
+        <v>2.3622864574226301</v>
+      </c>
+      <c r="E15">
+        <v>3.1813291471995799</v>
+      </c>
+      <c r="F15" s="1">
+        <v>3.1322998687663999</v>
+      </c>
+      <c r="G15">
+        <v>2.6652506223934802</v>
+      </c>
+    </row>
+    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16">
+        <v>3.1749925186225503</v>
+      </c>
+      <c r="C16">
+        <v>3.0267985572259102</v>
+      </c>
+      <c r="D16">
+        <v>2.4569015513991599</v>
+      </c>
+      <c r="E16">
+        <v>3.2214678092726898</v>
+      </c>
+      <c r="F16" s="1">
+        <v>3.48849750127324</v>
+      </c>
+      <c r="G16">
+        <v>3.1189392988621201</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17">
+        <v>3.21842695585755</v>
+      </c>
+      <c r="C17">
+        <v>3.16646219881132</v>
+      </c>
+      <c r="D17">
+        <v>2.4772186665009599</v>
+      </c>
+      <c r="E17">
+        <v>3.35240525015243</v>
+      </c>
+      <c r="F17" s="1">
+        <v>3.7842322411647</v>
+      </c>
+      <c r="G17">
+        <v>4.1174016955267003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18">
+        <v>3.2361487283365475</v>
+      </c>
+      <c r="C18">
+        <v>3.2261000764481498</v>
+      </c>
+      <c r="D18">
+        <v>2.47951983604157</v>
+      </c>
+      <c r="E18">
+        <v>3.3601875532821799</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2.8454652985903</v>
+      </c>
+      <c r="G18">
+        <v>3.0203592369842198</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19">
+        <v>3.2496372868206236</v>
+      </c>
+      <c r="C19">
+        <v>3.2391596345084701</v>
+      </c>
+      <c r="D19">
+        <v>2.5693473193473202</v>
+      </c>
+      <c r="E19">
+        <v>3.3642036456966098</v>
+      </c>
+      <c r="F19" s="1">
+        <v>3.3959948195020502</v>
+      </c>
+      <c r="G19">
+        <v>3.4269047059744699</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20">
+        <v>3.2802407985320015</v>
+      </c>
+      <c r="C20">
+        <v>3.3130914497346602</v>
+      </c>
+      <c r="D20">
+        <v>2.5767513520772298</v>
+      </c>
+      <c r="E20">
+        <v>3.39384615384615</v>
+      </c>
+      <c r="F20" s="1">
+        <v>4.1759387725116497</v>
+      </c>
+      <c r="G20">
+        <v>3.8445703054078799</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21">
+        <v>3.3282033968414857</v>
+      </c>
+      <c r="C21">
+        <v>3.34856994856995</v>
+      </c>
+      <c r="D21">
+        <v>2.5897424953763002</v>
+      </c>
+      <c r="E21">
+        <v>3.4262144354597202</v>
+      </c>
+      <c r="F21" s="1">
+        <v>3.8204635489015799</v>
+      </c>
+      <c r="G21">
+        <v>4.06110583120316</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22">
+        <v>3.3521987800962885</v>
+      </c>
+      <c r="C22">
+        <v>3.3597115360234699</v>
+      </c>
+      <c r="D22">
+        <v>2.6072404371584699</v>
+      </c>
+      <c r="E22">
+        <v>3.45380489440161</v>
+      </c>
+      <c r="F22" s="1">
+        <v>3.7575161158216099</v>
+      </c>
+      <c r="G22">
+        <v>3.8816290010006398</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23">
+        <v>3.3750587095281284</v>
+      </c>
+      <c r="C23">
+        <v>3.36267293683794</v>
+      </c>
+      <c r="D23">
+        <v>2.6903409090909101</v>
+      </c>
+      <c r="E23">
+        <v>3.5077324193169699</v>
+      </c>
+      <c r="F23" s="1">
+        <v>3.9551006578358701</v>
+      </c>
+      <c r="G23">
+        <v>3.17855394171466</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24">
+        <v>3.3780837569171118</v>
+      </c>
+      <c r="C24">
+        <v>3.36860559448077</v>
+      </c>
+      <c r="D24">
+        <v>2.71455109712387</v>
+      </c>
+      <c r="E24">
+        <v>3.5208683829132399</v>
+      </c>
+      <c r="F24" s="1">
+        <v>4.0601591695341703</v>
+      </c>
+      <c r="G24">
+        <v>3.2938312745713798</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25">
+        <v>3.3929043283781581</v>
+      </c>
+      <c r="C25">
+        <v>3.3921672869041299</v>
+      </c>
+      <c r="D25">
+        <v>2.7303923761800402</v>
+      </c>
+      <c r="E25">
+        <v>3.5633762006903802</v>
+      </c>
+      <c r="F25" s="1">
+        <v>3.6230582102300102</v>
+      </c>
+      <c r="G25">
+        <v>3.60606060606061</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26">
+        <v>3.3981689145435099</v>
+      </c>
+      <c r="C26">
+        <v>3.4254868832206999</v>
+      </c>
+      <c r="D26">
+        <v>2.7883166731281301</v>
+      </c>
+      <c r="E26">
+        <v>3.57376175023234</v>
+      </c>
+      <c r="F26" s="1">
+        <v>3.4166214641594301</v>
+      </c>
+      <c r="G26">
+        <v>3.8443115091368298</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27">
+        <v>3.4057184070565585</v>
+      </c>
+      <c r="C27">
+        <v>3.44327601215097</v>
+      </c>
+      <c r="D27">
+        <v>2.8377651480503898</v>
+      </c>
+      <c r="E27">
+        <v>3.5894187779433699</v>
+      </c>
+      <c r="F27" s="1">
+        <v>3.9212133871736401</v>
+      </c>
+      <c r="G27">
+        <v>3.58531090948353</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28">
+        <v>3.4189167229019737</v>
+      </c>
+      <c r="C28">
+        <v>3.4563239441696201</v>
+      </c>
+      <c r="D28">
+        <v>2.8483057525610702</v>
+      </c>
+      <c r="E28">
+        <v>3.6022727272727302</v>
+      </c>
+      <c r="F28" s="1">
+        <v>3.4863807245386198</v>
+      </c>
+      <c r="G28">
+        <v>2.8074357229192199</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29">
+        <v>3.4246706016048982</v>
+      </c>
+      <c r="C29">
+        <v>3.5109544055318098</v>
+      </c>
+      <c r="D29">
+        <v>2.88382683094127</v>
+      </c>
+      <c r="E29">
+        <v>3.61881940385739</v>
+      </c>
+      <c r="F29" s="1">
+        <v>3.52262981500995</v>
+      </c>
+      <c r="G29">
+        <v>3.94555549455912</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30">
+        <v>3.4440059092161044</v>
+      </c>
+      <c r="C30">
+        <v>3.5174888999146301</v>
+      </c>
+      <c r="D30">
+        <v>2.9526449938949901</v>
+      </c>
+      <c r="E30">
+        <v>3.6291574850348698</v>
+      </c>
+      <c r="F30" s="1">
+        <v>2.7408246821181401</v>
+      </c>
+      <c r="G30">
+        <v>4.0269649038832496</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31">
+        <v>3.4545264908667561</v>
+      </c>
+      <c r="C31">
+        <v>3.5254560468550502</v>
+      </c>
+      <c r="D31">
+        <v>2.95913386130777</v>
+      </c>
+      <c r="E31">
+        <v>3.66505870183616</v>
+      </c>
+      <c r="F31" s="1">
+        <v>4.2415380054043998</v>
+      </c>
+      <c r="G31">
+        <v>3.2312000291876499</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32">
+        <v>3.4929636675757259</v>
+      </c>
+      <c r="C32">
+        <v>3.5880456424790999</v>
+      </c>
+      <c r="D32">
+        <v>2.9742647058823501</v>
+      </c>
+      <c r="E32">
+        <v>3.74016897913957</v>
+      </c>
+      <c r="F32" s="1">
+        <v>2.46987016869471</v>
+      </c>
+      <c r="G32">
+        <v>3.6855756241210602</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33">
+        <v>3.4998115670316219</v>
+      </c>
+      <c r="C33">
+        <v>3.6209684633051502</v>
+      </c>
+      <c r="D33">
+        <v>3.0797128259337598</v>
+      </c>
+      <c r="E33">
+        <v>3.7428691678691699</v>
+      </c>
+      <c r="F33" s="1">
+        <v>3.03662793056181</v>
+      </c>
+      <c r="G33">
+        <v>3.3741248718366599</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34">
+        <v>3.5078706668838224</v>
+      </c>
+      <c r="C34">
+        <v>3.68522843643811</v>
+      </c>
+      <c r="D34">
+        <v>3.0976001511715801</v>
+      </c>
+      <c r="E34">
+        <v>3.7500331634073198</v>
+      </c>
+      <c r="F34" s="1">
+        <v>4.5256700005111004</v>
+      </c>
+      <c r="G34">
+        <v>3.7961633882686501</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35">
+        <v>3.5087261136515613</v>
+      </c>
+      <c r="C35">
+        <v>3.7130022186380902</v>
+      </c>
+      <c r="D35">
+        <v>3.1273743368440101</v>
+      </c>
+      <c r="E35">
+        <v>3.7523056461633999</v>
+      </c>
+      <c r="F35" s="1">
+        <v>3.2287144734185902</v>
+      </c>
+      <c r="G35">
+        <v>3.2886653217430499</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36">
+        <v>3.5098776477790414</v>
+      </c>
+      <c r="C36">
+        <v>3.7235026399551301</v>
+      </c>
+      <c r="D36">
+        <v>3.1507977685358202</v>
+      </c>
+      <c r="E36">
+        <v>3.7559192580469198</v>
+      </c>
+      <c r="F36" s="1">
+        <v>2.9225139229942099</v>
+      </c>
+      <c r="G36">
+        <v>3.4788859392442801</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37">
+        <v>3.5407745933090973</v>
+      </c>
+      <c r="C37">
+        <v>3.72368764526975</v>
+      </c>
+      <c r="D37">
+        <v>3.15263157894737</v>
+      </c>
+      <c r="E37">
+        <v>3.7587343724437399</v>
+      </c>
+      <c r="F37" s="1">
+        <v>3.2489643048550598</v>
+      </c>
+      <c r="G37">
+        <v>3.5580562318922602</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38">
+        <v>3.5572710376820185</v>
+      </c>
+      <c r="C38">
+        <v>3.7460125755961999</v>
+      </c>
+      <c r="D38">
+        <v>3.1678268092061201</v>
+      </c>
+      <c r="E38">
+        <v>3.7681721568775801</v>
+      </c>
+      <c r="F38" s="1">
+        <v>2.4774032569744202</v>
+      </c>
+      <c r="G38">
+        <v>3.9073362800927498</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39">
+        <v>3.5682406357438099</v>
+      </c>
+      <c r="C39">
+        <v>3.7819303388413399</v>
+      </c>
+      <c r="D39">
+        <v>3.2478431372548999</v>
+      </c>
+      <c r="E39">
+        <v>3.8096327497696501</v>
+      </c>
+      <c r="F39" s="1">
+        <v>3.6152345191952699</v>
+      </c>
+      <c r="G39">
+        <v>2.9938226055544899</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40">
+        <v>3.5793532672236261</v>
+      </c>
+      <c r="C40">
+        <v>3.7960199511972998</v>
+      </c>
+      <c r="D40">
+        <v>3.27906963943459</v>
+      </c>
+      <c r="E40">
+        <v>3.81704714169007</v>
+      </c>
+      <c r="F40" s="1"/>
+      <c r="G40">
+        <v>3.21846575502583</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41">
+        <v>3.5865452581784902</v>
+      </c>
+      <c r="C41">
+        <v>3.7971174528474299</v>
+      </c>
+      <c r="D41">
+        <v>3.3073827707974099</v>
+      </c>
+      <c r="E41">
+        <v>3.8191247099455001</v>
+      </c>
+      <c r="F41" s="1"/>
+      <c r="G41">
+        <v>3.0844716332197399</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42">
+        <v>3.595180620700436</v>
+      </c>
+      <c r="C42">
+        <v>3.7992109308085902</v>
+      </c>
+      <c r="D42">
+        <v>3.3240369579716802</v>
+      </c>
+      <c r="E42">
+        <v>3.8783743148916301</v>
+      </c>
+      <c r="F42" s="1"/>
+      <c r="G42">
+        <v>3.5263792662284001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43">
+        <v>3.5976904733482917</v>
+      </c>
+      <c r="C43">
+        <v>3.8290935211465</v>
+      </c>
+      <c r="D43">
+        <v>3.3665200016033299</v>
+      </c>
+      <c r="E43">
+        <v>3.9025453359425999</v>
+      </c>
+      <c r="F43" s="1">
+        <v>3.5299788599999999</v>
+      </c>
+      <c r="G43">
+        <v>2.9805927525780098</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44">
+        <v>3.5994522848226942</v>
+      </c>
+      <c r="C44">
+        <v>3.8337609918530999</v>
+      </c>
+      <c r="D44">
+        <v>3.4219334803338701</v>
+      </c>
+      <c r="E44">
+        <v>3.9169435215946802</v>
+      </c>
+      <c r="F44" s="1">
+        <v>4.0159553470138496</v>
+      </c>
+      <c r="G44">
+        <v>3.8341270415910098</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45">
+        <v>3.6133409698896015</v>
+      </c>
+      <c r="C45">
+        <v>3.8345972215832398</v>
+      </c>
+      <c r="D45">
+        <v>3.4235855263157902</v>
+      </c>
+      <c r="E45">
+        <v>3.9287242169595098</v>
+      </c>
+      <c r="F45" s="1">
+        <v>4.3122968522022997</v>
+      </c>
+      <c r="G45">
+        <v>3.22927074117688</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46">
+        <v>3.632870032381438</v>
+      </c>
+      <c r="C46">
+        <v>3.8401452620202599</v>
+      </c>
+      <c r="D46">
+        <v>3.4590070227012899</v>
+      </c>
+      <c r="E46">
+        <v>3.9424928093802301</v>
+      </c>
+      <c r="F46" s="1">
+        <v>3.7666706982744702</v>
+      </c>
+      <c r="G46">
+        <v>3.5790604805822199</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47">
+        <v>3.633197076748452</v>
+      </c>
+      <c r="C47">
+        <v>3.8833263714842698</v>
+      </c>
+      <c r="D47">
+        <v>3.4709677419354801</v>
+      </c>
+      <c r="E47">
+        <v>3.9533839865593401</v>
+      </c>
+      <c r="F47" s="1">
+        <v>3.81460284998021</v>
+      </c>
+      <c r="G47">
+        <v>3.3203042040089299</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48">
+        <v>3.7181574789899559</v>
+      </c>
+      <c r="C48">
+        <v>3.9084019898991702</v>
+      </c>
+      <c r="D48">
+        <v>3.5660669046458202</v>
+      </c>
+      <c r="E48">
+        <v>3.9733261725742901</v>
+      </c>
+      <c r="F48" s="1">
+        <v>2.6656864439324099</v>
+      </c>
+      <c r="G48">
+        <v>3.6618210171061301</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49">
+        <v>3.7311746199111924</v>
+      </c>
+      <c r="C49">
+        <v>3.9269408369408398</v>
+      </c>
+      <c r="D49">
+        <v>3.6109685968984602</v>
+      </c>
+      <c r="E49">
+        <v>3.98443019729089</v>
+      </c>
+      <c r="F49" s="1">
+        <v>4.1035543403964496</v>
+      </c>
+      <c r="G49">
+        <v>4.0194991468657602</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50">
+        <v>3.7346341589312813</v>
+      </c>
+      <c r="C50">
+        <v>3.9341810966811002</v>
+      </c>
+      <c r="D50">
+        <v>3.65465619651666</v>
+      </c>
+      <c r="E50">
+        <v>3.9965182040743001</v>
+      </c>
+      <c r="F50" s="1">
+        <v>4.1751796814296798</v>
+      </c>
+      <c r="G50">
+        <v>3.0890590459168901</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51">
+        <v>3.7367074454290723</v>
+      </c>
+      <c r="C51">
+        <v>3.95716188177702</v>
+      </c>
+      <c r="D51">
+        <v>3.6927556818181801</v>
+      </c>
+      <c r="E51">
+        <v>4.1113830767206201</v>
+      </c>
+      <c r="F51" s="1">
+        <v>3.6925213675213699</v>
+      </c>
+      <c r="G51">
+        <v>3.7710090597858201</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52">
+        <v>3.7932879810725879</v>
+      </c>
+      <c r="C52">
+        <v>3.9739781385936102</v>
+      </c>
+      <c r="D52">
+        <v>3.7768353728755102</v>
+      </c>
+      <c r="E52">
+        <v>4.1195790237706396</v>
+      </c>
+      <c r="F52" s="1">
+        <v>3.6408051006964102</v>
+      </c>
+      <c r="G52">
+        <v>3.4464546109766299</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="B53">
+        <v>3.8120320302912076</v>
+      </c>
+      <c r="C53">
+        <v>3.9928706775637899</v>
+      </c>
+      <c r="D53">
+        <v>3.83900711342572</v>
+      </c>
+      <c r="E53">
+        <v>4.12423728813559</v>
+      </c>
+      <c r="F53" s="1">
+        <v>4.3574144969493798</v>
+      </c>
+      <c r="G53">
+        <v>3.6200849180789301</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+      <c r="B54">
+        <v>3.836999716162238</v>
+      </c>
+      <c r="C54">
+        <v>4.0136354246122599</v>
+      </c>
+      <c r="D54">
+        <v>3.9085317460317501</v>
+      </c>
+      <c r="E54">
+        <v>4.1277636729080696</v>
+      </c>
+      <c r="F54" s="1">
+        <v>3.6700773634156101</v>
+      </c>
+      <c r="G54">
+        <v>3.7603803897180801</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="B55">
+        <v>3.8390810554496979</v>
+      </c>
+      <c r="C55">
+        <v>4.0998172514619897</v>
+      </c>
+      <c r="D55">
+        <v>4.0429213143376099</v>
+      </c>
+      <c r="E55">
+        <v>4.1481208045801301</v>
+      </c>
+      <c r="F55" s="1">
+        <v>4.154338998089</v>
+      </c>
+      <c r="G55">
+        <v>3.3388230807196999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="B56">
+        <v>3.8696590267556261</v>
+      </c>
+      <c r="C56">
+        <v>4.1055562858194401</v>
+      </c>
+      <c r="D56">
+        <v>4.0592999553347298</v>
+      </c>
+      <c r="E56">
+        <v>4.15323565323565</v>
+      </c>
+      <c r="F56" s="1">
+        <v>2.9069084646696601</v>
+      </c>
+      <c r="G56">
+        <v>3.7860036039311402</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="B57">
+        <v>3.9074090650626743</v>
+      </c>
+      <c r="C57">
+        <v>4.1116455063478501</v>
+      </c>
+      <c r="D57">
+        <v>4.2983952751754604</v>
+      </c>
+      <c r="E57">
+        <v>4.23581300813008</v>
+      </c>
+      <c r="F57" s="1">
+        <v>3.51092065614124</v>
+      </c>
+      <c r="G57">
+        <v>4.2394909802146703</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+      <c r="B58">
+        <v>3.9701483631683758</v>
+      </c>
+      <c r="C58">
+        <v>4.14422889784161</v>
+      </c>
+      <c r="D58">
+        <v>4.3195020460075204</v>
+      </c>
+      <c r="E58">
+        <v>4.4972381794078702</v>
+      </c>
+      <c r="F58" s="1">
+        <v>3.3197816697445801</v>
+      </c>
+      <c r="G58">
+        <v>3.7116519654190099</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B59">
+        <v>4.0691077830017734</v>
+      </c>
+      <c r="C59">
+        <v>4.4702534778472103</v>
+      </c>
+      <c r="D59">
+        <v>4.4417755704735704</v>
+      </c>
+      <c r="E59">
+        <v>4.5766543546343401</v>
+      </c>
+      <c r="F59" s="1">
+        <v>3.55543203125537</v>
+      </c>
+      <c r="G59">
+        <v>3.6214986817194301</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="D11:D59">
+    <sortCondition ref="D10"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/presentation/evavalues/avgscoreallgroups.xlsx
+++ b/presentation/evavalues/avgscoreallgroups.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git repositories\Auto_TextSum\presentation\evavalues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE95A74A-C132-4277-8C6D-CA6C296D4E07}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16BEA1B-F090-4B4F-AD38-69394FF52239}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -644,11 +644,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -699,6 +699,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFA500"/>
+      <color rgb="FF0000FF"/>
       <color rgb="FF9C1C1C"/>
     </mruColors>
   </colors>
@@ -1456,7 +1458,63 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t>statistical Score Values over all Topics per Group</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE" sz="1600"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -1660,10 +1718,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
+              <a:srgbClr val="FFA500"/>
             </a:solidFill>
             <a:ln w="19050">
               <a:solidFill>
@@ -1679,10 +1734,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
+                <a:srgbClr val="FFA500"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -1703,7 +1755,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="9C1C1C"/>
+                <a:srgbClr val="0000FF"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -1793,10 +1845,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
+              <a:srgbClr val="FFA500"/>
             </a:solidFill>
             <a:ln w="19050">
               <a:solidFill>
@@ -1812,10 +1861,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
+                <a:srgbClr val="FFA500"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -1836,7 +1882,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="9C1C1C"/>
+                <a:srgbClr val="0000FF"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -2196,7 +2242,9 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -2213,8 +2261,8 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -3270,7 +3318,63 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t>calculated Score per Topic</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE" sz="1600"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -3293,10 +3397,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
+                <a:srgbClr val="FFA500"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3641,7 +3742,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="9C1C1C"/>
+                <a:srgbClr val="0000FF"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -4079,7 +4180,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4270,7 +4371,9 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -4287,8 +4390,8 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -5211,7 +5314,67 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1600"/>
+              <a:t>calculated Score</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1600" baseline="0"/>
+              <a:t> per Topic - sorted</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE" sz="1600"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -5234,10 +5397,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
+                <a:srgbClr val="FFA500"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -5440,7 +5600,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="9C1C1C"/>
+                <a:srgbClr val="0000FF"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -5645,69 +5805,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>sorted</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100" baseline="0"/>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>evaluated summaries</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -5874,6 +5971,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="tr"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.88009942129629637"/>
+          <c:y val="0.79236828703703688"/>
+          <c:w val="9.7851967592592598E-2"/>
+          <c:h val="0.11345138888888889"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="1"/>
       <c:spPr>
         <a:solidFill>
@@ -5889,7 +5996,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -5922,10 +6029,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="tx1"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -5943,8 +6047,8 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -9291,15 +9395,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>478846</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>80091</xdr:rowOff>
+      <xdr:colOff>680552</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>158532</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>710864</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>176552</xdr:colOff>
       <xdr:row>78</xdr:row>
-      <xdr:rowOff>91423</xdr:rowOff>
+      <xdr:rowOff>97032</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9328,16 +9432,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>170293</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>3605</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>672519</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>142150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>66</xdr:col>
-      <xdr:colOff>368293</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>44705</xdr:rowOff>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>108519</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>183250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9364,16 +9468,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>275646</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>129163</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>414191</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>77209</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>473646</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>170263</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>672191</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>15709</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9441,16 +9545,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>733424</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>169424</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>143774</xdr:rowOff>
+      <xdr:colOff>438974</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>186149</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9777,8 +9881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BB48"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" zoomScale="84" workbookViewId="0">
-      <selection activeCell="Q64" sqref="Q64"/>
+    <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="AB78" sqref="AB78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10122,7 +10226,7 @@
         <v>4.4417755704735704</v>
       </c>
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B20" si="1">INDEX($F3:$BB3, MATCH(A4,$F4:$BB4,0))</f>
+        <f t="shared" ref="B4:B19" si="1">INDEX($F3:$BB3, MATCH(A4,$F4:$BB4,0))</f>
         <v>4.4275519421860903</v>
       </c>
       <c r="C4" s="1">
@@ -10130,7 +10234,7 @@
         <v>2.2487604343187102</v>
       </c>
       <c r="D4" s="4">
-        <f t="shared" ref="D4:D20" si="3">INDEX($F3:$BB3, MATCH(C4,$F4:$BB4,0))</f>
+        <f t="shared" ref="D4:D19" si="3">INDEX($F3:$BB3, MATCH(C4,$F4:$BB4,0))</f>
         <v>2.3055555555555598</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -13795,25 +13899,25 @@
       </c>
     </row>
     <row r="33" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D33" s="6"/>
+      <c r="D33" s="5"/>
     </row>
     <row r="34" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="L34" s="5" t="s">
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="L34" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
     </row>
     <row r="35" spans="4:17" x14ac:dyDescent="0.25">
       <c r="E35" s="2" t="s">
@@ -14187,7 +14291,7 @@
         <v>2.3018575851393202</v>
       </c>
       <c r="G44" s="1">
-        <f t="shared" ref="G44:K44" si="21">G36</f>
+        <f t="shared" ref="G44:J44" si="21">G36</f>
         <v>2.6516057585824999</v>
       </c>
       <c r="H44" s="1">
@@ -14211,7 +14315,7 @@
         <v>2.2487604343187102</v>
       </c>
       <c r="N44" s="1">
-        <f t="shared" ref="N44:R48" si="23">N36</f>
+        <f t="shared" ref="N44:P44" si="23">N36</f>
         <v>2.6087598675833998</v>
       </c>
       <c r="O44" s="1">
@@ -14454,8 +14558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23762BC7-8DEB-4B59-8C47-55F9E118F12F}">
   <dimension ref="A1:AX59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16427,6 +16531,7 @@
     <sortCondition ref="D10"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/presentation/evavalues/avgscoreallgroups.xlsx
+++ b/presentation/evavalues/avgscoreallgroups.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git repositories\Auto_TextSum\presentation\evavalues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16BEA1B-F090-4B4F-AD38-69394FF52239}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC0FB863-AFB1-4982-A07D-B129AAE72078}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="avgscoreallgroups" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="37">
   <si>
     <t>Gruppe1</t>
   </si>
@@ -111,12 +111,6 @@
   </si>
   <si>
     <t>Group 6</t>
-  </si>
-  <si>
-    <t>Score</t>
-  </si>
-  <si>
-    <t>Ø Score per Topic</t>
   </si>
   <si>
     <t>g5</t>
@@ -2149,7 +2143,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Score</c:v>
+                  <c:v>score</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3389,7 +3383,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Ø Score per Topic</c:v>
+                  <c:v>Average</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4124,7 +4118,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>Topic</a:t>
+                  <a:t>topic</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4245,7 +4239,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>Score</a:t>
+                  <a:t>score</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -5892,7 +5886,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>Score</a:t>
+                  <a:t>score</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -5975,7 +5969,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.88009942129629637"/>
+          <c:x val="0.88891886574074086"/>
           <c:y val="0.79236828703703688"/>
           <c:w val="9.7851967592592598E-2"/>
           <c:h val="0.11345138888888889"/>
@@ -9881,8 +9875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BB48"/>
   <sheetViews>
-    <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="AB78" sqref="AB78"/>
+    <sheetView tabSelected="1" topLeftCell="M55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13482,7 +13476,7 @@
         <v>1019</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" ref="F31:AK31" si="11">AVERAGE(F4,F8,F12,F16,F20)</f>
@@ -13911,7 +13905,7 @@
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
       <c r="L34" s="6" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="M34" s="6"/>
       <c r="N34" s="6"/>
@@ -14558,15 +14552,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23762BC7-8DEB-4B59-8C47-55F9E118F12F}">
   <dimension ref="A1:AX59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P35" sqref="P35"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1">
         <v>3.836999716162238</v>
@@ -14718,7 +14712,7 @@
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B2">
         <v>3.6209684633051502</v>
@@ -14870,7 +14864,7 @@
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <v>3.3240369579716802</v>
@@ -15022,7 +15016,7 @@
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B4">
         <v>3.9169435215946802</v>
@@ -15174,7 +15168,7 @@
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B5" s="1">
         <v>4.3995431339291002</v>
@@ -15320,7 +15314,7 @@
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B6" s="1">
         <v>3.9235065040105801</v>
@@ -15481,22 +15475,22 @@
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
       </c>
       <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s">
         <v>34</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
         <v>35</v>
-      </c>
-      <c r="F10" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
